--- a/stats_of_codingRegion_insertions_v86.xlsx
+++ b/stats_of_codingRegion_insertions_v86.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlebien/Google Drive/atallah-lab/Insertion Stats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnlebien/Google Drive/atallah-lab/insertion stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74B54F5-DF35-594B-8156-EDC439AD250F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E698C605-D4B6-6F44-8ECB-E08B1B1BE96F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="1380" windowWidth="22780" windowHeight="18140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1981,76 +1981,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>3.6493359949738596E-2</c:v>
+                  <c:v>3.7044106600931957E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.808123982342927E-2</c:v>
+                  <c:v>2.8434070991831768E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6706770214070051E-2</c:v>
+                  <c:v>2.6968663974221575E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.160240385235327E-2</c:v>
+                  <c:v>2.1788624625243537E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5450918165787879E-2</c:v>
+                  <c:v>2.568038362340154E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6041941343832427E-2</c:v>
+                  <c:v>2.6353511859156228E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7230065545599796E-2</c:v>
+                  <c:v>2.7617450002817175E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4294768911344987E-2</c:v>
+                  <c:v>2.4542911432031564E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6668276821991205E-2</c:v>
+                  <c:v>2.7110033861391023E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7084944990802249E-2</c:v>
+                  <c:v>2.7429581301562339E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3901286008084557E-2</c:v>
+                  <c:v>3.4413873599428955E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0623847037083327E-2</c:v>
+                  <c:v>4.1092079944813495E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.1440107512498304E-2</c:v>
+                  <c:v>2.1600172548897546E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5279229770944651E-2</c:v>
+                  <c:v>3.5662891582869206E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4994218143982759E-2</c:v>
+                  <c:v>4.5705283325230453E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4126912263317164E-2</c:v>
+                  <c:v>4.495109414112175E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1951570796792142E-2</c:v>
+                  <c:v>5.3279152852731937E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6066560400002995E-2</c:v>
+                  <c:v>2.6188790244075673E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.9023696413443386E-2</c:v>
+                  <c:v>7.128653936201837E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9170263121159203E-2</c:v>
+                  <c:v>2.9727382940520623E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7945298566679926E-2</c:v>
+                  <c:v>2.8275991554004523E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3584341935284406E-2</c:v>
+                  <c:v>5.4781567448555238E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8962378328708951E-2</c:v>
+                  <c:v>1.9254568074938656E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4888462584913845E-2</c:v>
+                  <c:v>1.5159941235179695E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13172,8 +13172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="82" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13381,16 +13381,16 @@
         <v>1.2183646359384728</v>
       </c>
       <c r="T3">
-        <f>I3*11.55</f>
-        <v>30867825.450000003</v>
+        <f>I3*7.46</f>
+        <v>19937140.940000001</v>
       </c>
       <c r="U3">
-        <f>J3*7.25</f>
-        <v>30457721.25</v>
+        <f>J3*3.48</f>
+        <v>14619706.199999999</v>
       </c>
       <c r="V3">
-        <f>K3*1.95</f>
-        <v>20452619.849999998</v>
+        <f>K3*2.05</f>
+        <v>21501472.149999999</v>
       </c>
       <c r="W3">
         <f>L3</f>
@@ -13398,47 +13398,47 @@
       </c>
       <c r="X3">
         <f>SUM(T3:W3)*2</f>
-        <v>219498361.09999999</v>
+        <v>168058666.57999998</v>
       </c>
       <c r="Y3">
         <f>SUM(T3:W3)*2</f>
-        <v>219498361.09999999</v>
+        <v>168058666.57999998</v>
       </c>
       <c r="Z3">
         <f>T3/SUM($T3:$W3)</f>
-        <v>0.2812579127726344</v>
+        <v>0.23726406195790492</v>
       </c>
       <c r="AA3">
         <f>U3/SUM($T3:$W3)</f>
-        <v>0.2775211723437328</v>
+        <v>0.17398336542246295</v>
       </c>
       <c r="AB3">
         <f>V3/SUM($T3:$W3)</f>
-        <v>0.18635783654605154</v>
+        <v>0.25588055156637551</v>
       </c>
       <c r="AC3">
         <f>W3/SUM($T3:$W3)</f>
-        <v>0.25486307833758126</v>
+        <v>0.33287202105325669</v>
       </c>
       <c r="AE3">
-        <f>Z3*N3</f>
-        <v>8.0688534125004929E-3</v>
+        <f t="shared" ref="AE3:AE26" si="1">Z3*N3</f>
+        <v>6.8067380473678879E-3</v>
       </c>
       <c r="AF3">
-        <f>AA3*O3</f>
-        <v>1.0768658992051126E-2</v>
+        <f t="shared" ref="AF3:AF26" si="2">AA3*O3</f>
+        <v>6.7510796264702829E-3</v>
       </c>
       <c r="AG3">
-        <f>AB3*P3</f>
-        <v>6.3648475232282722E-3</v>
+        <f t="shared" ref="AG3:AG26" si="3">AB3*P3</f>
+        <v>8.739319607185235E-3</v>
       </c>
       <c r="AH3">
-        <f>AC3*Q3</f>
-        <v>1.1291000021958706E-2</v>
+        <f t="shared" ref="AH3:AH26" si="4">AC3*Q3</f>
+        <v>1.474696931990855E-2</v>
       </c>
       <c r="AI3">
         <f>SUM(AE3:AH3)</f>
-        <v>3.6493359949738596E-2</v>
+        <v>3.7044106600931957E-2</v>
       </c>
       <c r="AK3">
         <f>I3/SUM(I$3:I$26)</f>
@@ -13501,7 +13501,7 @@
         <v>30898470</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:Q26" si="1">D4/I4</f>
+        <f t="shared" ref="N4:Q26" si="5">D4/I4</f>
         <v>2.2372010786498794E-2</v>
       </c>
       <c r="O4">
@@ -13521,95 +13521,95 @@
         <v>3.0826624396038369E-2</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S26" si="2">B4/R4</f>
+        <f t="shared" ref="S4:S26" si="6">B4/R4</f>
         <v>1.2495848937412943</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T26" si="3">I4*11.55</f>
-        <v>32192021.400000002</v>
+        <f t="shared" ref="T4:T26" si="7">I4*7.46</f>
+        <v>20792422.48</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U26" si="4">J4*7.25</f>
-        <v>34544060.5</v>
+        <f t="shared" ref="U4:U26" si="8">J4*3.48</f>
+        <v>16581149.039999999</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V26" si="5">K4*1.95</f>
-        <v>22972751.099999998</v>
+        <f t="shared" ref="V4:V26" si="9">K4*2.05</f>
+        <v>24150840.899999999</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W26" si="6">L4</f>
+        <f t="shared" ref="W4:W26" si="10">L4</f>
         <v>30898470</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:Y24" si="7">SUM(T4:W4)*2</f>
-        <v>241214606</v>
+        <f t="shared" ref="X4:X24" si="11">SUM(T4:W4)*2</f>
+        <v>184845764.83999997</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y24" si="8">SUM(T4:W4)*2</f>
-        <v>241214606</v>
+        <f t="shared" ref="Y4:Y24" si="12">SUM(T4:W4)*2</f>
+        <v>184845764.83999997</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:Z26" si="9">T4/SUM($T4:$W4)</f>
-        <v>0.26691602083167387</v>
+        <f t="shared" ref="Z4:Z26" si="13">T4/SUM($T4:$W4)</f>
+        <v>0.22497050444188044</v>
       </c>
       <c r="AA4">
-        <f>U4/SUM($T4:$W4)</f>
-        <v>0.28641765167404498</v>
+        <f t="shared" ref="AA4:AA18" si="14">U4/SUM($T4:$W4)</f>
+        <v>0.17940523608265974</v>
       </c>
       <c r="AB4">
-        <f>V4/SUM($T4:$W4)</f>
-        <v>0.19047562235928614</v>
+        <f t="shared" ref="AB4:AB18" si="15">V4/SUM($T4:$W4)</f>
+        <v>0.26130802532483927</v>
       </c>
       <c r="AC4">
-        <f>W4/SUM($T4:$W4)</f>
-        <v>0.25619070513499503</v>
+        <f t="shared" ref="AC4:AC18" si="16">W4/SUM($T4:$W4)</f>
+        <v>0.33431623415062067</v>
       </c>
       <c r="AE4">
-        <f>Z4*N4</f>
-        <v>5.9714480971355451E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.0330425520178244E-3</v>
       </c>
       <c r="AF4">
-        <f>AA4*O4</f>
-        <v>8.5266499160502746E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.3408916393326228E-3</v>
       </c>
       <c r="AG4">
-        <f>AB4*P4</f>
-        <v>5.0030477839306297E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.8635372906604925E-3</v>
       </c>
       <c r="AH4">
-        <f>AC4*Q4</f>
-        <v>8.5800940263128199E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.1196599509820829E-2</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI26" si="10">SUM(AE4:AH4)</f>
-        <v>2.808123982342927E-2</v>
+        <f t="shared" ref="AI4:AI26" si="17">SUM(AE4:AH4)</f>
+        <v>2.8434070991831768E-2</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK26" si="11">I4/SUM(I$3:I$26)</f>
+        <f t="shared" ref="AK4:AK26" si="18">I4/SUM(I$3:I$26)</f>
         <v>8.1466813486054251E-2</v>
       </c>
       <c r="AN4">
-        <f t="shared" ref="AN4:AN26" si="12">11.55*D4</f>
+        <f t="shared" ref="AN4:AN26" si="19">11.55*D4</f>
         <v>720200.25</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO26" si="13">7.25*E4</f>
+        <f t="shared" ref="AO4:AO26" si="20">7.25*E4</f>
         <v>1028376.25</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4:AP26" si="14">1.95*F4</f>
+        <f t="shared" ref="AP4:AP26" si="21">1.95*F4</f>
         <v>603404.1</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ26" si="15">G4</f>
+        <f t="shared" ref="AQ4:AQ26" si="22">G4</f>
         <v>1034822</v>
       </c>
       <c r="AR4">
-        <f t="shared" ref="AR4:AS24" si="16">SUM(AN4:AQ4)*2</f>
+        <f t="shared" ref="AR4:AR24" si="23">SUM(AN4:AQ4)*2</f>
         <v>6773605.2000000002</v>
       </c>
       <c r="AS4">
-        <f t="shared" ref="AS4:AS24" si="17">SUM(AN4:AQ4)*2</f>
+        <f t="shared" ref="AS4:AS24" si="24">SUM(AN4:AQ4)*2</f>
         <v>6773605.2000000002</v>
       </c>
     </row>
@@ -13645,7 +13645,7 @@
         <v>25986494</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2089514818272989E-2</v>
       </c>
       <c r="O5">
@@ -13661,99 +13661,99 @@
         <v>3.1439985709499713E-2</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R26" si="18">SUM(D5:G5)/SUM(I5:L5)</f>
+        <f t="shared" ref="R5:R26" si="25">SUM(D5:G5)/SUM(I5:L5)</f>
         <v>2.9008946837372301E-2</v>
       </c>
       <c r="S5">
+        <f t="shared" si="6"/>
+        <v>1.2991528798125573</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>17257665.600000001</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="8"/>
+        <v>13916158.08</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="9"/>
+        <v>20284378.949999999</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="10"/>
+        <v>25986494</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="11"/>
+        <v>154889393.25999999</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="12"/>
+        <v>154889393.25999999</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="13"/>
+        <v>0.22283857192249423</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="14"/>
+        <v>0.17969155649851501</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="15"/>
+        <v>0.26192082650811721</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="16"/>
+        <v>0.33554904507087358</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>4.9223959365647272E-3</v>
+      </c>
+      <c r="AF5">
         <f t="shared" si="2"/>
-        <v>1.2991528798125573</v>
-      </c>
-      <c r="T5">
+        <v>5.0531083086250575E-3</v>
+      </c>
+      <c r="AG5">
         <f t="shared" si="3"/>
-        <v>26719308</v>
-      </c>
-      <c r="U5">
+        <v>6.443502547167251E-3</v>
+      </c>
+      <c r="AH5">
         <f t="shared" si="4"/>
-        <v>28991996</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="5"/>
-        <v>19294897.050000001</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="6"/>
-        <v>25986494</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="7"/>
-        <v>201985390.09999999</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="8"/>
-        <v>201985390.09999999</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="9"/>
-        <v>0.26456673907723388</v>
-      </c>
-      <c r="AA5">
-        <f>U5/SUM($T5:$W5)</f>
-        <v>0.28707022805606375</v>
-      </c>
-      <c r="AB5">
-        <f>V5/SUM($T5:$W5)</f>
-        <v>0.19105240275494562</v>
-      </c>
-      <c r="AC5">
-        <f>W5/SUM($T5:$W5)</f>
-        <v>0.25731063011175681</v>
-      </c>
-      <c r="AE5">
-        <f>Z5*N5</f>
-        <v>5.8441509032687213E-3</v>
-      </c>
-      <c r="AF5">
-        <f>AA5*O5</f>
-        <v>8.0727051555200581E-3</v>
-      </c>
-      <c r="AG5">
-        <f>AB5*P5</f>
-        <v>4.7000716216652749E-3</v>
-      </c>
-      <c r="AH5">
-        <f>AC5*Q5</f>
-        <v>8.0898425336160002E-3</v>
+        <v>1.054965718186454E-2</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="10"/>
-        <v>2.6706770214070051E-2</v>
+        <f t="shared" si="17"/>
+        <v>2.6968663974221575E-2</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.7617278650058218E-2</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>590216.55000000005</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>815284.25</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>474672.89999999997</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>817015</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>5394377.4000000004</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>5394377.4000000004</v>
       </c>
     </row>
@@ -13789,7 +13789,7 @@
         <v>26038352</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.772904292816313E-2</v>
       </c>
       <c r="O6">
@@ -13805,99 +13805,99 @@
         <v>2.5061609121806171E-2</v>
       </c>
       <c r="R6">
+        <f t="shared" si="25"/>
+        <v>2.3305562408347982E-2</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>1.2281312367133728</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>16707430.92</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="8"/>
+        <v>14162141.880000001</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="9"/>
+        <v>20922470.149999999</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="10"/>
+        <v>26038352</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="11"/>
+        <v>155660789.90000001</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="12"/>
+        <v>155660789.90000001</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="13"/>
+        <v>0.21466460411428245</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="14"/>
+        <v>0.18196158312055438</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="15"/>
+        <v>0.26882132826694588</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="16"/>
+        <v>0.33455248449821723</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>3.8057979814992574E-3</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>4.1629674397534334E-3</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>5.4354356067674043E-3</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="4"/>
+        <v>8.3844235972234393E-3</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="17"/>
+        <v>2.1788624625243537E-2</v>
+      </c>
+      <c r="AK6">
         <f t="shared" si="18"/>
-        <v>2.3305562408347982E-2</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="2"/>
-        <v>1.2281312367133728</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="3"/>
-        <v>25867403.100000001</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="4"/>
-        <v>29504462.25</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="5"/>
-        <v>19901861.849999998</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="6"/>
-        <v>26038352</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="7"/>
-        <v>202624158.40000001</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="8"/>
-        <v>202624158.40000001</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="9"/>
-        <v>0.25532397818956221</v>
-      </c>
-      <c r="AA6">
-        <f>U6/SUM($T6:$W6)</f>
-        <v>0.29122353901902742</v>
-      </c>
-      <c r="AB6">
-        <f>V6/SUM($T6:$W6)</f>
-        <v>0.19644115496545841</v>
-      </c>
-      <c r="AC6">
-        <f>W6/SUM($T6:$W6)</f>
-        <v>0.25701132782595187</v>
-      </c>
-      <c r="AE6">
-        <f>Z6*N6</f>
-        <v>4.5266497699121347E-3</v>
-      </c>
-      <c r="AF6">
-        <f>AA6*O6</f>
-        <v>6.6626926949891275E-3</v>
-      </c>
-      <c r="AG6">
-        <f>AB6*P6</f>
-        <v>3.9719439496016182E-3</v>
-      </c>
-      <c r="AH6">
-        <f>AC6*Q6</f>
-        <v>6.4411174378503919E-3</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="10"/>
-        <v>2.160240385235327E-2</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="11"/>
         <v>6.54614035425648E-2</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>458604.30000000005</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>675011.25</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>402405.89999999997</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>652563</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4377168.9000000004</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>4377168.9000000004</v>
       </c>
     </row>
@@ -13933,7 +13933,7 @@
         <v>23951693</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.0967038474561033E-2</v>
       </c>
       <c r="O7">
@@ -13949,99 +13949,99 @@
         <v>2.9602583834052985E-2</v>
       </c>
       <c r="R7">
+        <f t="shared" si="25"/>
+        <v>2.7506886307800519E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>1.2601886760983112</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>15599188.24</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="8"/>
+        <v>12808668.959999999</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="9"/>
+        <v>18672174.899999999</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="10"/>
+        <v>23951693</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="11"/>
+        <v>142063450.19999999</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="12"/>
+        <v>142063450.19999999</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="13"/>
+        <v>0.21960874831688412</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="14"/>
+        <v>0.18032321391558037</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="15"/>
+        <v>0.26287091963081155</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="16"/>
+        <v>0.33719711813672398</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>4.6045450753103003E-3</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>4.855567276656216E-3</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>6.2383653131915838E-3</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="4"/>
+        <v>9.9819059582434404E-3</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="17"/>
+        <v>2.568038362340154E-2</v>
+      </c>
+      <c r="AK7">
         <f t="shared" si="18"/>
-        <v>2.7506886307800519E-2</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>1.2601886760983112</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="3"/>
-        <v>24151558.200000003</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="4"/>
-        <v>26684727</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="5"/>
-        <v>17761337.099999998</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="6"/>
-        <v>23951693</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="7"/>
-        <v>185098630.59999999</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="8"/>
-        <v>185098630.59999999</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="9"/>
-        <v>0.26095879933538529</v>
-      </c>
-      <c r="AA7">
-        <f>U7/SUM($T7:$W7)</f>
-        <v>0.28832981544489072</v>
-      </c>
-      <c r="AB7">
-        <f>V7/SUM($T7:$W7)</f>
-        <v>0.19191213940833982</v>
-      </c>
-      <c r="AC7">
-        <f>W7/SUM($T7:$W7)</f>
-        <v>0.25879924581138419</v>
-      </c>
-      <c r="AE7">
-        <f>Z7*N7</f>
-        <v>5.471533185940276E-3</v>
-      </c>
-      <c r="AF7">
-        <f>AA7*O7</f>
-        <v>7.7638634891121668E-3</v>
-      </c>
-      <c r="AG7">
-        <f>AB7*P7</f>
-        <v>4.5543951204142508E-3</v>
-      </c>
-      <c r="AH7">
-        <f>AC7*Q7</f>
-        <v>7.6611263703211859E-3</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="10"/>
-        <v>2.5450918165787879E-2</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="11"/>
         <v>6.1119196673899583E-2</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>506386.65</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>718540.25</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>421506.14999999997</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>709032</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4710930.0999999996</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>4710930.0999999996</v>
       </c>
     </row>
@@ -14077,7 +14077,7 @@
         <v>22339159</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.0806152269877816E-2</v>
       </c>
       <c r="O8">
@@ -14093,99 +14093,99 @@
         <v>3.102901053705737E-2</v>
       </c>
       <c r="R8">
+        <f t="shared" si="25"/>
+        <v>2.8544257503795877E-2</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>1.2815647109340622</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>14940686.58</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>12055868.4</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="9"/>
+        <v>17649626.699999999</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="10"/>
+        <v>22339159</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="11"/>
+        <v>133970681.36</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="12"/>
+        <v>133970681.36</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="13"/>
+        <v>0.22304412321158623</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="14"/>
+        <v>0.17997771269975127</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="15"/>
+        <v>0.26348491357706416</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="16"/>
+        <v>0.33349325051159834</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>4.6406899904416522E-3</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>4.9693845940144291E-3</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="3"/>
+        <v>6.395471690538247E-3</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="4"/>
+        <v>1.0347965584161898E-2</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="17"/>
+        <v>2.6353511859156228E-2</v>
+      </c>
+      <c r="AK8">
         <f t="shared" si="18"/>
-        <v>2.8544257503795877E-2</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>1.2815647109340622</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="3"/>
-        <v>23132028.150000002</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="4"/>
-        <v>25116392.5</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="5"/>
-        <v>16788669.300000001</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="6"/>
-        <v>22339159</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="7"/>
-        <v>174752497.90000001</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="8"/>
-        <v>174752497.90000001</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="9"/>
-        <v>0.26474045782437999</v>
-      </c>
-      <c r="AA8">
-        <f>U8/SUM($T8:$W8)</f>
-        <v>0.28745102704480424</v>
-      </c>
-      <c r="AB8">
-        <f>V8/SUM($T8:$W8)</f>
-        <v>0.19214225263443288</v>
-      </c>
-      <c r="AC8">
-        <f>W8/SUM($T8:$W8)</f>
-        <v>0.25566626249638286</v>
-      </c>
-      <c r="AE8">
-        <f>Z8*N8</f>
-        <v>5.508230277491216E-3</v>
-      </c>
-      <c r="AF8">
-        <f>AA8*O8</f>
-        <v>7.9368422006401533E-3</v>
-      </c>
-      <c r="AG8">
-        <f>AB8*P8</f>
-        <v>4.6637977127307207E-3</v>
-      </c>
-      <c r="AH8">
-        <f>AC8*Q8</f>
-        <v>7.9330711529703394E-3</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="10"/>
-        <v>2.6041941343832427E-2</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="11"/>
         <v>5.8539120592477199E-2</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>481288.50000000006</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>693491.5</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>407505.14999999997</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>693162</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4550894.3</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>4550894.3</v>
       </c>
     </row>
@@ -14221,7 +14221,7 @@
         <v>20103896</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1339915940303739E-2</v>
       </c>
       <c r="O9">
@@ -14237,99 +14237,99 @@
         <v>3.3087715933269847E-2</v>
       </c>
       <c r="R9">
+        <f t="shared" si="25"/>
+        <v>3.0206805201203869E-2</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>1.3332720408033125</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>14300603.66</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>10753374</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="9"/>
+        <v>15827145.949999999</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="10"/>
+        <v>20103896</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="11"/>
+        <v>121970039.22</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="12"/>
+        <v>121970039.22</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="13"/>
+        <v>0.23449371257814702</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="14"/>
+        <v>0.17632812236132689</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="15"/>
+        <v>0.25952514324361631</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="16"/>
+        <v>0.32965302181690975</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="1"/>
+        <v>5.0040761149474028E-3</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>5.1211363380260135E-3</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="3"/>
+        <v>6.5847720074218401E-3</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>1.0907465542421918E-2</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="17"/>
+        <v>2.7617450002817175E-2</v>
+      </c>
+      <c r="AK9">
         <f t="shared" si="18"/>
-        <v>3.0206805201203869E-2</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="2"/>
-        <v>1.3332720408033125</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="3"/>
-        <v>22141015.050000001</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="4"/>
-        <v>22402862.5</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="5"/>
-        <v>15055090.049999999</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="6"/>
-        <v>20103896</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="7"/>
-        <v>159405727.19999999</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="8"/>
-        <v>159405727.19999999</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="9"/>
-        <v>0.27779447374836858</v>
-      </c>
-      <c r="AA9">
-        <f>U9/SUM($T9:$W9)</f>
-        <v>0.28107976913391608</v>
-      </c>
-      <c r="AB9">
-        <f>V9/SUM($T9:$W9)</f>
-        <v>0.1888902025597986</v>
-      </c>
-      <c r="AC9">
-        <f>W9/SUM($T9:$W9)</f>
-        <v>0.2522355545579168</v>
-      </c>
-      <c r="AE9">
-        <f>Z9*N9</f>
-        <v>5.9281107184710989E-3</v>
-      </c>
-      <c r="AF9">
-        <f>AA9*O9</f>
-        <v>8.1634613941273769E-3</v>
-      </c>
-      <c r="AG9">
-        <f>AB9*P9</f>
-        <v>4.7925950555181805E-3</v>
-      </c>
-      <c r="AH9">
-        <f>AC9*Q9</f>
-        <v>8.3458983774831394E-3</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" si="10"/>
-        <v>2.7230065545599796E-2</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="11"/>
         <v>5.6031210996594027E-2</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>472487.4</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>650651.25</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>381983.55</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>665192</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4340628.4000000004</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>4340628.4000000004</v>
       </c>
     </row>
@@ -14365,7 +14365,7 @@
         <v>18661277</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9610776349339262E-2</v>
       </c>
       <c r="O10">
@@ -14381,99 +14381,99 @@
         <v>2.8465844004137552E-2</v>
       </c>
       <c r="R10">
+        <f t="shared" si="25"/>
+        <v>2.6404782529952896E-2</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>1.274667957785371</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>12267619.380000001</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>9916611.4800000004</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="9"/>
+        <v>14526783.799999999</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="10"/>
+        <v>18661277</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="11"/>
+        <v>110744583.31999999</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="12"/>
+        <v>110744583.31999999</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="13"/>
+        <v>0.22154798026648986</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="14"/>
+        <v>0.1790897790701986</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="15"/>
+        <v>0.26234752733728556</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="16"/>
+        <v>0.33701471332602601</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>4.3447278916539612E-3</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>4.6291448722026764E-3</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="3"/>
+        <v>5.9756304115371334E-3</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="4"/>
+        <v>9.5934082566377938E-3</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="17"/>
+        <v>2.4542911432031564E-2</v>
+      </c>
+      <c r="AK10">
         <f t="shared" si="18"/>
-        <v>2.6404782529952896E-2</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="2"/>
-        <v>1.274667957785371</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
-        <v>18993432.150000002</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="4"/>
-        <v>20659607.25</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="5"/>
-        <v>13818160.199999999</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="6"/>
-        <v>18661277</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="7"/>
-        <v>144264953.20000002</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="8"/>
-        <v>144264953.20000002</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="9"/>
-        <v>0.2633131849239736</v>
-      </c>
-      <c r="AA10">
-        <f>U10/SUM($T10:$W10)</f>
-        <v>0.28641200501910946</v>
-      </c>
-      <c r="AB10">
-        <f>V10/SUM($T10:$W10)</f>
-        <v>0.19156641850281345</v>
-      </c>
-      <c r="AC10">
-        <f>W10/SUM($T10:$W10)</f>
-        <v>0.25870839155410336</v>
-      </c>
-      <c r="AE10">
-        <f>Z10*N10</f>
-        <v>5.163775979376257E-3</v>
-      </c>
-      <c r="AF10">
-        <f>AA10*O10</f>
-        <v>7.4032291024927858E-3</v>
-      </c>
-      <c r="AG10">
-        <f>AB10*P10</f>
-        <v>4.3634111129355006E-3</v>
-      </c>
-      <c r="AH10">
-        <f>AC10*Q10</f>
-        <v>7.3643527165404435E-3</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="10"/>
-        <v>2.4294768911344987E-2</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="11"/>
         <v>4.8065773043505636E-2</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>372475.95</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>534013.25</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>314743.64999999997</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>531209</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3504883.6999999997</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>3504883.6999999997</v>
       </c>
     </row>
@@ -14509,7 +14509,7 @@
         <v>15141954</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.0697934170348486E-2</v>
       </c>
       <c r="O11">
@@ -14525,99 +14525,99 @@
         <v>3.2711564174610491E-2</v>
       </c>
       <c r="R11">
+        <f t="shared" si="25"/>
+        <v>2.9782948692998482E-2</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>1.2259463393531005</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>10539473.08</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>7997861.2800000003</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="9"/>
+        <v>11639682.699999999</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="10"/>
+        <v>15141954</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="11"/>
+        <v>90637942.120000005</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="12"/>
+        <v>90637942.120000005</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="13"/>
+        <v>0.23256205587823864</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="14"/>
+        <v>0.1764793218586371</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="15"/>
+        <v>0.25683907705207282</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="16"/>
+        <v>0.33411954521105136</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>4.8135541230886897E-3</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>4.9804599425077945E-3</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>6.3864468506315631E-3</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>1.0929572945162978E-2</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="17"/>
+        <v>2.7110033861391023E-2</v>
+      </c>
+      <c r="AK11">
         <f t="shared" si="18"/>
-        <v>2.9782948692998482E-2</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>1.2259463393531005</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>16317816.9</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
-        <v>16662211</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="5"/>
-        <v>11071893.299999999</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="6"/>
-        <v>15141954</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="7"/>
-        <v>118387750.39999999</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="8"/>
-        <v>118387750.39999999</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="9"/>
-        <v>0.27566731937834005</v>
-      </c>
-      <c r="AA11">
-        <f>U11/SUM($T11:$W11)</f>
-        <v>0.28148538921810617</v>
-      </c>
-      <c r="AB11">
-        <f>V11/SUM($T11:$W11)</f>
-        <v>0.1870445761929099</v>
-      </c>
-      <c r="AC11">
-        <f>W11/SUM($T11:$W11)</f>
-        <v>0.25580271521064396</v>
-      </c>
-      <c r="AE11">
-        <f>Z11*N11</f>
-        <v>5.705744029409314E-3</v>
-      </c>
-      <c r="AF11">
-        <f>AA11*O11</f>
-        <v>7.9438581848413955E-3</v>
-      </c>
-      <c r="AG11">
-        <f>AB11*P11</f>
-        <v>4.6509676730879072E-3</v>
-      </c>
-      <c r="AH11">
-        <f>AC11*Q11</f>
-        <v>8.3677069346525905E-3</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="10"/>
-        <v>2.6668276821991205E-2</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="11"/>
         <v>4.1294721116577171E-2</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>337745.10000000003</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>470227.75</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>275308.79999999999</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>495317</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3157197.3000000003</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>3157197.3000000003</v>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
         <v>16355960</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.058898974662567E-2</v>
       </c>
       <c r="O12">
@@ -14669,99 +14669,99 @@
         <v>3.2505704342637179E-2</v>
       </c>
       <c r="R12">
+        <f t="shared" si="25"/>
+        <v>2.9942539537022739E-2</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>1.2333638679663024</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>11429324.26</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>8587811.7599999998</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="9"/>
+        <v>12546289.049999999</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="10"/>
+        <v>16355960</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="11"/>
+        <v>97838770.140000001</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="12"/>
+        <v>97838770.140000001</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="13"/>
+        <v>0.23363589390270315</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="14"/>
+        <v>0.1755502802766527</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="15"/>
+        <v>0.25646865822305803</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="16"/>
+        <v>0.33434516759758609</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="1"/>
+        <v>4.8103270240064779E-3</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>5.1874846676195144E-3</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="3"/>
+        <v>6.5636444436197395E-3</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="4"/>
+        <v>1.0868125166316609E-2</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="17"/>
+        <v>2.7429581301562339E-2</v>
+      </c>
+      <c r="AK12">
         <f t="shared" si="18"/>
-        <v>2.9942539537022739E-2</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>1.2333638679663024</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>17695535.550000001</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="4"/>
-        <v>17891274.5</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="5"/>
-        <v>11934274.949999999</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="6"/>
-        <v>16355960</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="7"/>
-        <v>127754090</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="8"/>
-        <v>127754090</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="9"/>
-        <v>0.27702495552197193</v>
-      </c>
-      <c r="AA12">
-        <f>U12/SUM($T12:$W12)</f>
-        <v>0.28008926367836834</v>
-      </c>
-      <c r="AB12">
-        <f>V12/SUM($T12:$W12)</f>
-        <v>0.18683198244377144</v>
-      </c>
-      <c r="AC12">
-        <f>W12/SUM($T12:$W12)</f>
-        <v>0.25605379835588826</v>
-      </c>
-      <c r="AE12">
-        <f>Z12*N12</f>
-        <v>5.7036639688013121E-3</v>
-      </c>
-      <c r="AF12">
-        <f>AA12*O12</f>
-        <v>8.2765960761021426E-3</v>
-      </c>
-      <c r="AG12">
-        <f>AB12*P12</f>
-        <v>4.7814758807330545E-3</v>
-      </c>
-      <c r="AH12">
-        <f>AC12*Q12</f>
-        <v>8.3232090651657424E-3</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="10"/>
-        <v>2.7084944990802249E-2</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="11"/>
         <v>4.4781248007858633E-2</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>364333.2</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>528684.5</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>305426.55</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>531662</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3460212.5</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>3460212.5</v>
       </c>
     </row>
@@ -14797,7 +14797,7 @@
         <v>16584479</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.7189951786593208E-2</v>
       </c>
       <c r="O13">
@@ -14813,99 +14813,99 @@
         <v>4.1047897856785254E-2</v>
       </c>
       <c r="R13">
+        <f t="shared" si="25"/>
+        <v>3.7519775468666569E-2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>1.4099651145648846</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>10897545.619999999</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>8488924.0800000001</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="9"/>
+        <v>12492212.1</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="10"/>
+        <v>16584479</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="11"/>
+        <v>96926321.599999994</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="12"/>
+        <v>96926321.599999994</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="13"/>
+        <v>0.22486246130277165</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="14"/>
+        <v>0.17516241078522474</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="15"/>
+        <v>0.25776717601135091</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="16"/>
+        <v>0.34220795190065278</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>6.1139994814370423E-3</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>6.1980315571988033E-3</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="3"/>
+        <v>8.0549255053954313E-3</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="4"/>
+        <v>1.4046917055397677E-2</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="17"/>
+        <v>3.4413873599428955E-2</v>
+      </c>
+      <c r="AK13">
         <f t="shared" si="18"/>
-        <v>3.7519775468666569E-2</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="2"/>
-        <v>1.4099651145648846</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="3"/>
-        <v>16872205.350000001</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="4"/>
-        <v>17685258.5</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="5"/>
-        <v>11882835.9</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="6"/>
-        <v>16584479</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="7"/>
-        <v>126049557.5</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="8"/>
-        <v>126049557.5</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="9"/>
-        <v>0.26770749036544617</v>
-      </c>
-      <c r="AA13">
-        <f>U13/SUM($T13:$W13)</f>
-        <v>0.28060802196786766</v>
-      </c>
-      <c r="AB13">
-        <f>V13/SUM($T13:$W13)</f>
-        <v>0.18854228663198599</v>
-      </c>
-      <c r="AC13">
-        <f>W13/SUM($T13:$W13)</f>
-        <v>0.26314220103470021</v>
-      </c>
-      <c r="AE13">
-        <f>Z13*N13</f>
-        <v>7.2789537559463467E-3</v>
-      </c>
-      <c r="AF13">
-        <f>AA13*O13</f>
-        <v>9.9291701202521062E-3</v>
-      </c>
-      <c r="AG13">
-        <f>AB13*P13</f>
-        <v>5.89172794200408E-3</v>
-      </c>
-      <c r="AH13">
-        <f>AC13*Q13</f>
-        <v>1.0801434189882025E-2</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="10"/>
-        <v>3.3901286008084557E-2</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="11"/>
         <v>4.269768553107562E-2</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>458754.45</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>625783.75</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>371324.85</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>680758</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4273242.0999999996</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>4273242.0999999996</v>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
         <v>16779978</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.3558723726896451E-2</v>
       </c>
       <c r="O14">
@@ -14957,99 +14957,99 @@
         <v>4.7656796689483145E-2</v>
       </c>
       <c r="R14">
+        <f t="shared" si="25"/>
+        <v>4.4215576809061574E-2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>1.2601638811365077</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>12003587.6</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>8854880.8800000008</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="9"/>
+        <v>13066384.299999999</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="10"/>
+        <v>16779978</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="11"/>
+        <v>101409661.56</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="12"/>
+        <v>101409661.56</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="13"/>
+        <v>0.23673459540929365</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="14"/>
+        <v>0.17463584324775455</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="15"/>
+        <v>0.25769505782778196</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="16"/>
+        <v>0.33093450351516979</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>7.9445108839390939E-3</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>7.4827284533538884E-3</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="3"/>
+        <v>9.8935622559630197E-3</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>1.5771278351557491E-2</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="17"/>
+        <v>4.1092079944813495E-2</v>
+      </c>
+      <c r="AK14">
         <f t="shared" si="18"/>
-        <v>4.4215576809061574E-2</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="2"/>
-        <v>1.2601638811365077</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="3"/>
-        <v>18584643</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="4"/>
-        <v>18447668.5</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="5"/>
-        <v>12428999.699999999</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="6"/>
-        <v>16779978</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="7"/>
-        <v>132482578.40000001</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="8"/>
-        <v>132482578.40000001</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="9"/>
-        <v>0.28055980226906574</v>
-      </c>
-      <c r="AA14">
-        <f>U14/SUM($T14:$W14)</f>
-        <v>0.27849199076276432</v>
-      </c>
-      <c r="AB14">
-        <f>V14/SUM($T14:$W14)</f>
-        <v>0.18763221323295137</v>
-      </c>
-      <c r="AC14">
-        <f>W14/SUM($T14:$W14)</f>
-        <v>0.25331599373521851</v>
-      </c>
-      <c r="AE14">
-        <f>Z14*N14</f>
-        <v>9.4152288932202732E-3</v>
-      </c>
-      <c r="AF14">
-        <f>AA14*O14</f>
-        <v>1.1932716128356995E-2</v>
-      </c>
-      <c r="AG14">
-        <f>AB14*P14</f>
-        <v>7.2036732038723659E-3</v>
-      </c>
-      <c r="AH14">
-        <f>AC14*Q14</f>
-        <v>1.2072228811633695E-2</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="10"/>
-        <v>4.0623847037083327E-2</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="11"/>
         <v>4.7031269834639955E-2</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>623676.9</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>790438.5</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>477180.6</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>799680</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>5381952</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>5381952</v>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
         <v>13364426</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.7223706483211428E-2</v>
       </c>
       <c r="O15">
@@ -15101,99 +15101,99 @@
         <v>2.4850824120691752E-2</v>
       </c>
       <c r="R15">
+        <f t="shared" si="25"/>
+        <v>2.3134352585037297E-2</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>1.0451393943940672</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>8580618.8200000003</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>7258702.3200000003</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="9"/>
+        <v>10613928.299999999</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>13364426</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>79635350.879999995</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="12"/>
+        <v>79635350.879999995</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="13"/>
+        <v>0.21549773373711545</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="14"/>
+        <v>0.18229849532371398</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="15"/>
+        <v>0.26656323310469976</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="16"/>
+        <v>0.33564053783447084</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>3.7116697136853252E-3</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>4.2038616807812332E-3</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>5.3436971809321674E-3</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="4"/>
+        <v>8.3409439734988215E-3</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="17"/>
+        <v>2.1600172548897546E-2</v>
+      </c>
+      <c r="AK15">
         <f t="shared" si="18"/>
-        <v>2.3134352585037297E-2</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="2"/>
-        <v>1.0451393943940672</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="3"/>
-        <v>13285006.350000001</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="4"/>
-        <v>15122296.5</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="5"/>
-        <v>10096175.699999999</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
-        <v>13364426</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="7"/>
-        <v>103735809.09999999</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="8"/>
-        <v>103735809.09999999</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="9"/>
-        <v>0.25613154156234375</v>
-      </c>
-      <c r="AA15">
-        <f>U15/SUM($T15:$W15)</f>
-        <v>0.29155402808729819</v>
-      </c>
-      <c r="AB15">
-        <f>V15/SUM($T15:$W15)</f>
-        <v>0.19465169814730832</v>
-      </c>
-      <c r="AC15">
-        <f>W15/SUM($T15:$W15)</f>
-        <v>0.25766273220304986</v>
-      </c>
-      <c r="AE15">
-        <f>Z15*N15</f>
-        <v>4.4115344929622768E-3</v>
-      </c>
-      <c r="AF15">
-        <f>AA15*O15</f>
-        <v>6.7233292539094882E-3</v>
-      </c>
-      <c r="AG15">
-        <f>AB15*P15</f>
-        <v>3.9021125251916507E-3</v>
-      </c>
-      <c r="AH15">
-        <f>AC15*Q15</f>
-        <v>6.403131240434891E-3</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="10"/>
-        <v>2.1440107512498304E-2</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="11"/>
         <v>3.3619732076734285E-2</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>228817.05000000002</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>348725</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>202394.4</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>332117</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2224106.9000000004</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2224106.9000000004</v>
       </c>
     </row>
@@ -15229,7 +15229,7 @@
         <v>11425316</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.9552701393385391E-2</v>
       </c>
       <c r="O16">
@@ -15245,99 +15245,99 @@
         <v>4.1159649326110541E-2</v>
       </c>
       <c r="R16">
+        <f t="shared" si="25"/>
+        <v>3.8240907774870506E-2</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>1.1026313158971992</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="7"/>
+        <v>7938178.54</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>6066597</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="9"/>
+        <v>8816828.5999999996</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>11425316</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>68493840.280000001</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="12"/>
+        <v>68493840.280000001</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="13"/>
+        <v>0.23179247966091704</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="14"/>
+        <v>0.17714284891020859</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="15"/>
+        <v>0.25744880310279483</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="16"/>
+        <v>0.33361586832607948</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="1"/>
+        <v>6.8500939366514376E-3</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>6.5425819047096366E-3</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="3"/>
+        <v>8.5387035915808328E-3</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>1.3731512149927301E-2</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="17"/>
+        <v>3.5662891582869206E-2</v>
+      </c>
+      <c r="AK16">
         <f t="shared" si="18"/>
-        <v>3.8240907774870506E-2</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="2"/>
-        <v>1.1026313158971992</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="3"/>
-        <v>12290343.450000001</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="4"/>
-        <v>12638743.75</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="5"/>
-        <v>8386739.3999999994</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="6"/>
-        <v>11425316</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="7"/>
-        <v>89482285.200000003</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="8"/>
-        <v>89482285.200000003</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="9"/>
-        <v>0.27469891772500243</v>
-      </c>
-      <c r="AA16">
-        <f>U16/SUM($T16:$W16)</f>
-        <v>0.28248594058033732</v>
-      </c>
-      <c r="AB16">
-        <f>V16/SUM($T16:$W16)</f>
-        <v>0.18745027311841606</v>
-      </c>
-      <c r="AC16">
-        <f>W16/SUM($T16:$W16)</f>
-        <v>0.25536486857624419</v>
-      </c>
-      <c r="AE16">
-        <f>Z16*N16</f>
-        <v>8.1180950886131382E-3</v>
-      </c>
-      <c r="AF16">
-        <f>AA16*O16</f>
-        <v>1.043331647055433E-2</v>
-      </c>
-      <c r="AG16">
-        <f>AB16*P16</f>
-        <v>6.2170897709706669E-3</v>
-      </c>
-      <c r="AH16">
-        <f>AC16*Q16</f>
-        <v>1.0510728440806517E-2</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="10"/>
-        <v>3.5279229770944651E-2</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="11"/>
         <v>3.1102586106031185E-2</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>363212.85000000003</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>466798.5</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>278159.7</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>470262</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3156866.1</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>3156866.1</v>
       </c>
     </row>
@@ -15373,7 +15373,7 @@
         <v>10225146</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.6304078751909309E-2</v>
       </c>
       <c r="O17">
@@ -15389,99 +15389,99 @@
         <v>5.362387979594619E-2</v>
       </c>
       <c r="R17">
+        <f t="shared" si="25"/>
+        <v>4.9610467981254833E-2</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>1.0491270168109674</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>7467586.8200000003</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>5408386.3200000003</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="9"/>
+        <v>7751021.2999999989</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>10225146</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>61704280.879999995</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="12"/>
+        <v>61704280.879999995</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="13"/>
+        <v>0.24204436753821548</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="14"/>
+        <v>0.17530019774537239</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="15"/>
+        <v>0.25123123353706606</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="16"/>
+        <v>0.33142420117934612</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="1"/>
+        <v>8.7871977805634559E-3</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>8.2760727897166278E-3</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>1.0869761229441622E-2</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>1.7772251525508743E-2</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="17"/>
+        <v>4.5705283325230453E-2</v>
+      </c>
+      <c r="AK17">
         <f t="shared" si="18"/>
-        <v>4.9610467981254833E-2</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="2"/>
-        <v>1.0491270168109674</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="3"/>
-        <v>11561746.350000001</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="4"/>
-        <v>11267471.5</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="5"/>
-        <v>7372922.7000000002</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="6"/>
-        <v>10225146</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="7"/>
-        <v>80854573.099999994</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="8"/>
-        <v>80854573.099999994</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="9"/>
-        <v>0.28598868083071982</v>
-      </c>
-      <c r="AA17">
-        <f>U17/SUM($T17:$W17)</f>
-        <v>0.27870956627436577</v>
-      </c>
-      <c r="AB17">
-        <f>V17/SUM($T17:$W17)</f>
-        <v>0.1823749088596697</v>
-      </c>
-      <c r="AC17">
-        <f>W17/SUM($T17:$W17)</f>
-        <v>0.25292684403524485</v>
-      </c>
-      <c r="AE17">
-        <f>Z17*N17</f>
-        <v>1.0382555591033108E-2</v>
-      </c>
-      <c r="AF17">
-        <f>AA17*O17</f>
-        <v>1.3158117830690767E-2</v>
-      </c>
-      <c r="AG17">
-        <f>AB17*P17</f>
-        <v>7.8906260405448864E-3</v>
-      </c>
-      <c r="AH17">
-        <f>AC17*Q17</f>
-        <v>1.3562918681714E-2</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="10"/>
-        <v>4.4994218143982759E-2</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="11"/>
         <v>2.9258760168086824E-2</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>419738.55000000005</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>531947</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>318996.59999999998</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>548312</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3637988.3</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>3637988.3</v>
       </c>
     </row>
@@ -15517,7 +15517,7 @@
         <v>8838860</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.4647598544261624E-2</v>
       </c>
       <c r="O18">
@@ -15533,99 +15533,99 @@
         <v>5.5009130136691835E-2</v>
       </c>
       <c r="R18">
+        <f t="shared" si="25"/>
+        <v>4.9836446729617283E-2</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>1.2910056696032386</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="7"/>
+        <v>7276857</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>4510407.12</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="9"/>
+        <v>6651331.5999999996</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="10"/>
+        <v>8838860</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="11"/>
+        <v>54554911.439999998</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="12"/>
+        <v>54554911.439999998</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="13"/>
+        <v>0.26677183805909593</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="14"/>
+        <v>0.16535292610494248</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="15"/>
+        <v>0.24383988258564754</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="16"/>
+        <v>0.32403535325031407</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="1"/>
+        <v>9.2430035479863296E-3</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="2"/>
+        <v>7.7856953441697314E-3</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>1.0097492333130256E-2</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>1.7824902915835435E-2</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="17"/>
+        <v>4.495109414112175E-2</v>
+      </c>
+      <c r="AK18">
         <f t="shared" si="18"/>
-        <v>4.9836446729617283E-2</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="2"/>
-        <v>1.2910056696032386</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="3"/>
-        <v>11266447.5</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="4"/>
-        <v>9396681.5</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="5"/>
-        <v>6326876.3999999994</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="6"/>
-        <v>8838860</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="7"/>
-        <v>71657730.799999997</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="8"/>
-        <v>71657730.799999997</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="9"/>
-        <v>0.31445169625717484</v>
-      </c>
-      <c r="AA18">
-        <f>U18/SUM($T18:$W18)</f>
-        <v>0.26226567308491999</v>
-      </c>
-      <c r="AB18">
-        <f>V18/SUM($T18:$W18)</f>
-        <v>0.17658601045178504</v>
-      </c>
-      <c r="AC18">
-        <f>W18/SUM($T18:$W18)</f>
-        <v>0.24669662020612018</v>
-      </c>
-      <c r="AE18">
-        <f>Z18*N18</f>
-        <v>1.0894996133480689E-2</v>
-      </c>
-      <c r="AF18">
-        <f>AA18*O18</f>
-        <v>1.2348862992463055E-2</v>
-      </c>
-      <c r="AG18">
-        <f>AB18*P18</f>
-        <v>7.3124866521729155E-3</v>
-      </c>
-      <c r="AH18">
-        <f>AC18*Q18</f>
-        <v>1.3570566485200506E-2</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="10"/>
-        <v>4.4126912263317164E-2</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="11"/>
         <v>2.851146144966598E-2</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>390355.35000000003</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>442445.75</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>261998.1</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>486218</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3162034.4000000004</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>3162034.4000000004</v>
       </c>
     </row>
@@ -15661,115 +15661,115 @@
         <v>8781448</v>
       </c>
       <c r="N19">
+        <f t="shared" si="5"/>
+        <v>3.7636956079677521E-2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>5.673861730324304E-2</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>5.0025829296490451E-2</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>6.7594205420336145E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="25"/>
+        <v>6.0546399998038139E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>1.3976227330975606</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="7"/>
+        <v>7667335.7800000003</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="8"/>
+        <v>4462776.3600000003</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="9"/>
+        <v>6520018.8499999996</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="10"/>
+        <v>8781448</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="11"/>
+        <v>54863157.980000004</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="12"/>
+        <v>54863157.980000004</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="13"/>
+        <v>0.27950763544435686</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" ref="AA19:AA26" si="26">U19/SUM($T19:$W19)</f>
+        <v>0.16268754932506349</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" ref="AB19:AC26" si="27">V19/SUM($T19:$W19)</f>
+        <v>0.23768295847558862</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="27"/>
+        <v>0.32012185675499094</v>
+      </c>
+      <c r="AE19">
         <f t="shared" si="1"/>
-        <v>3.7636956079677521E-2</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="1"/>
-        <v>5.673861730324304E-2</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="1"/>
-        <v>5.0025829296490451E-2</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>6.7594205420336145E-2</v>
-      </c>
-      <c r="R19">
+        <v>1.0519816599153775E-2</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="2"/>
+        <v>9.2306666011572527E-3</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="3"/>
+        <v>1.1890287107384625E-2</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="4"/>
+        <v>2.1638382545036281E-2</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="17"/>
+        <v>5.3279152852731937E-2</v>
+      </c>
+      <c r="AK19">
         <f t="shared" si="18"/>
-        <v>6.0546399998038139E-2</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="2"/>
-        <v>1.3976227330975606</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="3"/>
-        <v>11871009.15</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="4"/>
-        <v>9297450.75</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="5"/>
-        <v>6201969.1499999994</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="6"/>
-        <v>8781448</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="7"/>
-        <v>72303754.099999994</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="8"/>
-        <v>72303754.099999994</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="9"/>
-        <v>0.3283649458527908</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" ref="AA19:AA26" si="19">U19/SUM($T19:$W19)</f>
-        <v>0.25717753844817309</v>
-      </c>
-      <c r="AB19">
-        <f>V19/SUM($T19:$W19)</f>
-        <v>0.1715531711236554</v>
-      </c>
-      <c r="AC19">
-        <f>W19/SUM($T19:$W19)</f>
-        <v>0.24290434457538079</v>
-      </c>
-      <c r="AE19">
-        <f>Z19*N19</f>
-        <v>1.2358657045167174E-2</v>
-      </c>
-      <c r="AF19">
-        <f>AA19*O19</f>
-        <v>1.4591897933000966E-2</v>
-      </c>
-      <c r="AG19">
-        <f>AB19*P19</f>
-        <v>8.582089653903599E-3</v>
-      </c>
-      <c r="AH19">
-        <f>AC19*Q19</f>
-        <v>1.6418926164720404E-2</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="10"/>
-        <v>5.1951570796792142E-2</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="11"/>
         <v>3.0041396788904145E-2</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>446788.65</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>527524.5</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>310258.64999999997</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>593575</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3756293.6</v>
       </c>
       <c r="AS19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>3756293.6</v>
       </c>
     </row>
@@ -15805,115 +15805,115 @@
         <v>10705381</v>
       </c>
       <c r="N20">
+        <f t="shared" si="5"/>
+        <v>2.2847299478006056E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>2.7271920796599895E-2</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>2.47460987091352E-2</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>2.8748439686546421E-2</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="25"/>
+        <v>2.7394038129312574E-2</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>1.2025331678493381</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="7"/>
+        <v>6578310.0599999996</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="8"/>
+        <v>5609589.4799999995</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="9"/>
+        <v>7968839.9499999993</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="10"/>
+        <v>10705381</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="11"/>
+        <v>61724240.979999997</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="12"/>
+        <v>61724240.979999997</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="13"/>
+        <v>0.21315159021984623</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="26"/>
+        <v>0.18176293109274941</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="27"/>
+        <v>0.25820779076350497</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="27"/>
+        <v>0.34687768792389939</v>
+      </c>
+      <c r="AE20">
         <f t="shared" si="1"/>
-        <v>2.2847299478006056E-2</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="1"/>
-        <v>2.7271920796599895E-2</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="1"/>
-        <v>2.47460987091352E-2</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="1"/>
-        <v>2.8748439686546421E-2</v>
-      </c>
-      <c r="R20">
+        <v>4.8699382159660539E-3</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="2"/>
+        <v>4.9570242605193066E-3</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="3"/>
+        <v>6.3896354777014221E-3</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="4"/>
+        <v>9.9721922898888937E-3</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="17"/>
+        <v>2.6188790244075673E-2</v>
+      </c>
+      <c r="AK20">
         <f t="shared" si="18"/>
-        <v>2.7394038129312574E-2</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="2"/>
-        <v>1.2025331678493381</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="3"/>
-        <v>10184917.050000001</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="4"/>
-        <v>11686644.75</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="5"/>
-        <v>7580116.0499999998</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="6"/>
-        <v>10705381</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="7"/>
-        <v>80314117.700000003</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="8"/>
-        <v>80314117.700000003</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="9"/>
-        <v>0.2536270668637377</v>
-      </c>
-      <c r="AA20">
+        <v>2.5774483912441856E-2</v>
+      </c>
+      <c r="AN20">
         <f t="shared" si="19"/>
-        <v>0.29102342364398531</v>
-      </c>
-      <c r="AB20">
-        <f>V20/SUM($T20:$W20)</f>
-        <v>0.1887617337294113</v>
-      </c>
-      <c r="AC20">
-        <f>W20/SUM($T20:$W20)</f>
-        <v>0.26658777576286563</v>
-      </c>
-      <c r="AE20">
-        <f>Z20*N20</f>
-        <v>5.7946935523640816E-3</v>
-      </c>
-      <c r="AF20">
-        <f>AA20*O20</f>
-        <v>7.9367677595741041E-3</v>
-      </c>
-      <c r="AG20">
-        <f>AB20*P20</f>
-        <v>4.6711164953755074E-3</v>
-      </c>
-      <c r="AH20">
-        <f>AC20*Q20</f>
-        <v>7.6639825926893045E-3</v>
-      </c>
-      <c r="AI20">
-        <f t="shared" si="10"/>
-        <v>2.6066560400002995E-2</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="11"/>
-        <v>2.5774483912441856E-2</v>
-      </c>
-      <c r="AN20">
-        <f t="shared" si="12"/>
         <v>232697.85</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>318717.25</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>187578.3</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>307763</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2093512.7999999998</v>
       </c>
       <c r="AS20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>2093512.7999999998</v>
       </c>
     </row>
@@ -15949,115 +15949,115 @@
         <v>5384209</v>
       </c>
       <c r="N21">
+        <f t="shared" si="5"/>
+        <v>4.7110002486906249E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>7.8844356706161398E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>6.6108282770118459E-2</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>9.8240057174600756E-2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="25"/>
+        <v>8.4690581851452423E-2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>1.3916615620038124</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="7"/>
+        <v>5969424.8600000003</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="8"/>
+        <v>2781727.56</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="9"/>
+        <v>4215152.5999999996</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="10"/>
+        <v>5384209</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="11"/>
+        <v>36701028.039999999</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="12"/>
+        <v>36701028.039999999</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="13"/>
+        <v>0.32530014437165072</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="26"/>
+        <v>0.15158853626488225</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="27"/>
+        <v>0.22970215414162004</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="27"/>
+        <v>0.29340916522184701</v>
+      </c>
+      <c r="AE21">
         <f t="shared" si="1"/>
-        <v>4.7110002486906249E-2</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>7.8844356706161398E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="1"/>
-        <v>6.6108282770118459E-2</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="1"/>
-        <v>9.8240057174600756E-2</v>
-      </c>
-      <c r="R21">
+        <v>1.5324890610339427E-2</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>1.195190062583326E-2</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>1.5185214958899554E-2</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="4"/>
+        <v>2.882453316694613E-2</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="17"/>
+        <v>7.128653936201837E-2</v>
+      </c>
+      <c r="AK21">
         <f t="shared" si="18"/>
-        <v>8.4690581851452423E-2</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="2"/>
-        <v>1.3916615620038124</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="3"/>
-        <v>9242206.0500000007</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="4"/>
-        <v>5795265.75</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="5"/>
-        <v>4009535.4</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="6"/>
-        <v>5384209</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="7"/>
-        <v>48862432.399999999</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="8"/>
-        <v>48862432.399999999</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="9"/>
-        <v>0.3782949638831325</v>
-      </c>
-      <c r="AA21">
+        <v>2.3388810137751469E-2</v>
+      </c>
+      <c r="AN21">
         <f t="shared" si="19"/>
-        <v>0.23720741949801091</v>
-      </c>
-      <c r="AB21">
-        <f>V21/SUM($T21:$W21)</f>
-        <v>0.16411526004996838</v>
-      </c>
-      <c r="AC21">
-        <f>W21/SUM($T21:$W21)</f>
-        <v>0.2203823565688883</v>
-      </c>
-      <c r="AE21">
-        <f>Z21*N21</f>
-        <v>1.782147668931848E-2</v>
-      </c>
-      <c r="AF21">
-        <f>AA21*O21</f>
-        <v>1.8702466396249236E-2</v>
-      </c>
-      <c r="AG21">
-        <f>AB21*P21</f>
-        <v>1.0849378018274835E-2</v>
-      </c>
-      <c r="AH21">
-        <f>AC21*Q21</f>
-        <v>2.1650375309600838E-2</v>
-      </c>
-      <c r="AI21">
-        <f t="shared" si="10"/>
-        <v>6.9023696413443386E-2</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="11"/>
-        <v>2.3388810137751469E-2</v>
-      </c>
-      <c r="AN21">
-        <f t="shared" si="12"/>
         <v>435400.35000000003</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>456924</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>265063.5</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>528945</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>3372665.7</v>
       </c>
       <c r="AS21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>3372665.7</v>
       </c>
     </row>
@@ -16093,115 +16093,115 @@
         <v>7296980</v>
       </c>
       <c r="N22">
+        <f t="shared" si="5"/>
+        <v>2.2085760333356901E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>3.1086857133201092E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>2.7447586358937525E-2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>3.6095617639078086E-2</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="25"/>
+        <v>3.2890845838109216E-2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>1.3932731312795659</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="7"/>
+        <v>5170309.66</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="8"/>
+        <v>3706927.32</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="9"/>
+        <v>5263100.3</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="10"/>
+        <v>7296980</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="11"/>
+        <v>42874634.560000002</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="12"/>
+        <v>42874634.560000002</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="13"/>
+        <v>0.24118268123146422</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="26"/>
+        <v>0.17291936633593546</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="27"/>
+        <v>0.24551114448029476</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="27"/>
+        <v>0.34038680795230547</v>
+      </c>
+      <c r="AE22">
         <f t="shared" si="1"/>
-        <v>2.2085760333356901E-2</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="1"/>
-        <v>3.1086857133201092E-2</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>2.7447586358937525E-2</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
-        <v>3.6095617639078086E-2</v>
-      </c>
-      <c r="R22">
+        <v>5.3267028942345345E-3</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="2"/>
+        <v>5.3755196368488883E-3</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="3"/>
+        <v>6.7386883402044788E-3</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="4"/>
+        <v>1.2286472069232722E-2</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="17"/>
+        <v>2.9727382940520623E-2</v>
+      </c>
+      <c r="AK22">
         <f t="shared" si="18"/>
-        <v>3.2890845838109216E-2</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="2"/>
-        <v>1.3932731312795659</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="3"/>
-        <v>8004970.0500000007</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="4"/>
-        <v>7722765.25</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="5"/>
-        <v>5006363.7</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="6"/>
-        <v>7296980</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="7"/>
-        <v>56062158</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="8"/>
-        <v>56062158</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="9"/>
-        <v>0.28557480966037735</v>
-      </c>
-      <c r="AA22">
+        <v>2.0257795989934338E-2</v>
+      </c>
+      <c r="AN22">
         <f t="shared" si="19"/>
-        <v>0.2755072414443982</v>
-      </c>
-      <c r="AB22">
-        <f>V22/SUM($T22:$W22)</f>
-        <v>0.17860046343560304</v>
-      </c>
-      <c r="AC22">
-        <f>W22/SUM($T22:$W22)</f>
-        <v>0.26031748545962147</v>
-      </c>
-      <c r="AE22">
-        <f>Z22*N22</f>
-        <v>6.3071368034031093E-3</v>
-      </c>
-      <c r="AF22">
-        <f>AA22*O22</f>
-        <v>8.5646542539443461E-3</v>
-      </c>
-      <c r="AG22">
-        <f>AB22*P22</f>
-        <v>4.9021516438949786E-3</v>
-      </c>
-      <c r="AH22">
-        <f>AC22*Q22</f>
-        <v>9.396320419916766E-3</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="10"/>
-        <v>2.9170263121159203E-2</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="11"/>
-        <v>2.0257795989934338E-2</v>
-      </c>
-      <c r="AN22">
-        <f t="shared" si="12"/>
         <v>176795.85</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>240076.5</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>137412.6</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>263389</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1635347.9</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1635347.9</v>
       </c>
     </row>
@@ -16237,115 +16237,115 @@
         <v>5119843</v>
       </c>
       <c r="N23">
+        <f t="shared" si="5"/>
+        <v>2.3017667177521201E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>2.919129297309303E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>2.6072748051588244E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>3.2884992762473378E-2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="25"/>
+        <v>3.0430897796627089E-2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>1.1764074629639754</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="7"/>
+        <v>3319744.76</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="8"/>
+        <v>2694943.32</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="9"/>
+        <v>3906855.1499999994</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="10"/>
+        <v>5119843</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="11"/>
+        <v>30082772.460000001</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="12"/>
+        <v>30082772.460000001</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="13"/>
+        <v>0.22070736760809842</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="26"/>
+        <v>0.17916854728621642</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="27"/>
+        <v>0.25974036503416076</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="27"/>
+        <v>0.34038372007152429</v>
+      </c>
+      <c r="AE23">
         <f t="shared" si="1"/>
-        <v>2.3017667177521201E-2</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
-        <v>2.919129297309303E-2</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="1"/>
-        <v>2.6072748051588244E-2</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>3.2884992762473378E-2</v>
-      </c>
-      <c r="R23">
+        <v>5.0801687312300326E-3</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="2"/>
+        <v>5.230161555395416E-3</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="3"/>
+        <v>6.7721450963632345E-3</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="4"/>
+        <v>1.1193516171015841E-2</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="17"/>
+        <v>2.8275991554004523E-2</v>
+      </c>
+      <c r="AK23">
         <f t="shared" si="18"/>
-        <v>3.0430897796627089E-2</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="2"/>
-        <v>1.1764074629639754</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="3"/>
-        <v>5139819.3000000007</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="4"/>
-        <v>5614465.25</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="5"/>
-        <v>3716276.85</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="6"/>
-        <v>5119843</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="7"/>
-        <v>39180808.799999997</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="8"/>
-        <v>39180808.799999997</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="9"/>
-        <v>0.2623641245506908</v>
-      </c>
-      <c r="AA23">
+        <v>1.3007095611123133E-2</v>
+      </c>
+      <c r="AN23">
         <f t="shared" si="19"/>
-        <v>0.28659261623001514</v>
-      </c>
-      <c r="AB23">
-        <f>V23/SUM($T23:$W23)</f>
-        <v>0.18969883286329711</v>
-      </c>
-      <c r="AC23">
-        <f>W23/SUM($T23:$W23)</f>
-        <v>0.26134442635599703</v>
-      </c>
-      <c r="AE23">
-        <f>Z23*N23</f>
-        <v>6.03901009822952E-3</v>
-      </c>
-      <c r="AF23">
-        <f>AA23*O23</f>
-        <v>8.3660090242955888E-3</v>
-      </c>
-      <c r="AG23">
-        <f>AB23*P23</f>
-        <v>4.9459698749250939E-3</v>
-      </c>
-      <c r="AH23">
-        <f>AC23*Q23</f>
-        <v>8.5943095692297185E-3</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="10"/>
-        <v>2.7945298566679926E-2</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="11"/>
-        <v>1.3007095611123133E-2</v>
-      </c>
-      <c r="AN23">
-        <f t="shared" si="12"/>
         <v>118306.65000000001</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>163893.5</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>96893.55</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>168366</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1094919.3999999999</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1094919.3999999999</v>
       </c>
     </row>
@@ -16381,115 +16381,115 @@
         <v>3887594</v>
       </c>
       <c r="N24">
+        <f t="shared" si="5"/>
+        <v>4.2317658846698684E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>5.6294313360841515E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>5.1508188765499043E-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>6.6724303000776322E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="25"/>
+        <v>6.0819249672216684E-2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>1.0776085409652025</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="7"/>
+        <v>3238721.7</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="8"/>
+        <v>1916171.52</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>2737250.1999999997</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="10"/>
+        <v>3887594</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="11"/>
+        <v>23559474.84</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="12"/>
+        <v>23559474.84</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="13"/>
+        <v>0.27494005889309547</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="26"/>
+        <v>0.16266674304188353</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="27"/>
+        <v>0.23236937313667216</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="27"/>
+        <v>0.33002382492834886</v>
+      </c>
+      <c r="AE24">
         <f t="shared" si="1"/>
-        <v>4.2317658846698684E-2</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>5.6294313360841515E-2</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>5.1508188765499043E-2</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>6.6724303000776322E-2</v>
-      </c>
-      <c r="R24">
+        <v>1.1634819615529259E-2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>9.1572126061872771E-3</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="3"/>
+        <v>1.1968925534844393E-2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="4"/>
+        <v>2.2020609691994309E-2</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="17"/>
+        <v>5.4781567448555238E-2</v>
+      </c>
+      <c r="AK24">
         <f t="shared" si="18"/>
-        <v>6.0819249672216684E-2</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="2"/>
-        <v>1.0776085409652025</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="3"/>
-        <v>5014374.75</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="4"/>
-        <v>3992024</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="5"/>
-        <v>2603725.7999999998</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="6"/>
-        <v>3887594</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="7"/>
-        <v>30995437.100000001</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="8"/>
-        <v>30995437.100000001</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="9"/>
-        <v>0.32355567265092705</v>
-      </c>
-      <c r="AA24">
+        <v>1.268963907023962E-2</v>
+      </c>
+      <c r="AN24">
         <f t="shared" si="19"/>
-        <v>0.25758784992259393</v>
-      </c>
-      <c r="AB24">
-        <f>V24/SUM($T24:$W24)</f>
-        <v>0.16800703868763958</v>
-      </c>
-      <c r="AC24">
-        <f>W24/SUM($T24:$W24)</f>
-        <v>0.25084943873883941</v>
-      </c>
-      <c r="AE24">
-        <f>Z24*N24</f>
-        <v>1.3692118573156047E-2</v>
-      </c>
-      <c r="AF24">
-        <f>AA24*O24</f>
-        <v>1.4500731141487918E-2</v>
-      </c>
-      <c r="AG24">
-        <f>AB24*P24</f>
-        <v>8.6537382626554402E-3</v>
-      </c>
-      <c r="AH24">
-        <f>AC24*Q24</f>
-        <v>1.6737753957984998E-2</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="10"/>
-        <v>5.3584341935284406E-2</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" si="11"/>
-        <v>1.268963907023962E-2</v>
-      </c>
-      <c r="AN24">
-        <f t="shared" si="12"/>
         <v>212196.6</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>224728.25</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>134113.19999999998</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>259397</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1660870.0999999999</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>1660870.0999999999</v>
       </c>
     </row>
@@ -16525,111 +16525,111 @@
         <v>20369761</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.449143563883723E-2</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.007802857063918E-2</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.7177300478301728E-2</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3533560359397441E-2</v>
       </c>
       <c r="R25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>2.1216024072372171E-2</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.3498450509707325</v>
       </c>
       <c r="T25">
-        <f t="shared" si="3"/>
-        <v>20320885.200000003</v>
+        <f t="shared" si="7"/>
+        <v>13125004.640000001</v>
       </c>
       <c r="U25">
-        <f t="shared" si="4"/>
-        <v>22567118.5</v>
+        <f t="shared" si="8"/>
+        <v>10832216.880000001</v>
       </c>
       <c r="V25">
-        <f t="shared" si="5"/>
-        <v>15370412.85</v>
+        <f t="shared" si="9"/>
+        <v>16158639.149999999</v>
       </c>
       <c r="W25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20369761</v>
       </c>
       <c r="X25">
-        <f t="shared" ref="X25:Y26" si="20">SUM(T25:W25)</f>
-        <v>78628177.550000012</v>
+        <f t="shared" ref="X25:X26" si="28">SUM(T25:W25)</f>
+        <v>60485621.670000002</v>
       </c>
       <c r="Y25">
         <f>SUM(T25:W25)</f>
-        <v>78628177.550000012</v>
+        <v>60485621.670000002</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="9"/>
-        <v>0.25844278518445707</v>
+        <f t="shared" si="13"/>
+        <v>0.21699379584139769</v>
       </c>
       <c r="AA25">
+        <f t="shared" si="26"/>
+        <v>0.17908746873924625</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="27"/>
+        <v>0.26714843468351834</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="27"/>
+        <v>0.33677030073583764</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="1"/>
+        <v>3.1445516264626003E-3</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="2"/>
+        <v>3.595723313990037E-3</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="3"/>
+        <v>4.5888889348667571E-3</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="4"/>
+        <v>7.9254041996192626E-3</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="17"/>
+        <v>1.9254568074938656E-2</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="18"/>
+        <v>5.1425095177773474E-2</v>
+      </c>
+      <c r="AN25">
         <f t="shared" si="19"/>
-        <v>0.28701057563809701</v>
-      </c>
-      <c r="AB25">
-        <f>V25/SUM($T25:$W25)</f>
-        <v>0.19548224731809261</v>
-      </c>
-      <c r="AC25">
-        <f>W25/SUM($T25:$W25)</f>
-        <v>0.2590643918593532</v>
-      </c>
-      <c r="AE25">
-        <f>Z25*N25</f>
-        <v>3.7452069878223956E-3</v>
-      </c>
-      <c r="AF25">
-        <f>AA25*O25</f>
-        <v>5.7626065377373087E-3</v>
-      </c>
-      <c r="AG25">
-        <f>AB25*P25</f>
-        <v>3.3578573003565687E-3</v>
-      </c>
-      <c r="AH25">
-        <f>AC25*Q25</f>
-        <v>6.0967075027926797E-3</v>
-      </c>
-      <c r="AI25">
-        <f t="shared" si="10"/>
-        <v>1.8962378328708951E-2</v>
-      </c>
-      <c r="AK25">
-        <f t="shared" si="11"/>
-        <v>5.1425095177773474E-2</v>
-      </c>
-      <c r="AN25">
-        <f t="shared" si="12"/>
         <v>294478.80000000005</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>453103.25</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>264022.2</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>479373</v>
       </c>
       <c r="AR25">
-        <f t="shared" ref="AR25:AS26" si="21">SUM(AN25:AQ25)</f>
+        <f t="shared" ref="AR25:AR26" si="29">SUM(AN25:AQ25)</f>
         <v>1490977.25</v>
       </c>
       <c r="AS25">
@@ -16669,110 +16669,110 @@
         <v>3342684</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.1936031064099935E-3</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.699494148943502E-2</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3507288994365861E-2</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9482846718385585E-2</v>
       </c>
       <c r="R26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.7255116731446238E-2</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.57071449177925326</v>
       </c>
       <c r="T26">
-        <f t="shared" si="3"/>
-        <v>3438515.85</v>
+        <f t="shared" si="7"/>
+        <v>2220894.2200000002</v>
       </c>
       <c r="U26">
-        <f t="shared" si="4"/>
-        <v>3681963.25</v>
+        <f t="shared" si="8"/>
+        <v>1767342.36</v>
       </c>
       <c r="V26">
-        <f t="shared" si="5"/>
-        <v>2557019.4</v>
+        <f t="shared" si="9"/>
+        <v>2688148.5999999996</v>
       </c>
       <c r="W26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3342684</v>
       </c>
       <c r="X26">
-        <f t="shared" si="20"/>
-        <v>13020182.5</v>
+        <f t="shared" si="28"/>
+        <v>10019069.18</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="9"/>
-        <v>0.26409121761542131</v>
+        <f t="shared" si="13"/>
+        <v>0.22166672173831625</v>
       </c>
       <c r="AA26">
+        <f t="shared" si="26"/>
+        <v>0.17639785974608874</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="27"/>
+        <v>0.26830322774555387</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="27"/>
+        <v>0.33363219077004119</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="1"/>
+        <v>2.0379158615611041E-3</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="2"/>
+        <v>2.997871305246343E-3</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="3"/>
+        <v>3.6240492352803571E-3</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="4"/>
+        <v>6.5001048330918902E-3</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="17"/>
+        <v>1.5159941235179695E-2</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="18"/>
+        <v>8.7016880965664154E-3</v>
+      </c>
+      <c r="AN26">
         <f t="shared" si="19"/>
-        <v>0.28278891252100347</v>
-      </c>
-      <c r="AB26">
-        <f>V26/SUM($T26:$W26)</f>
-        <v>0.19638890622308866</v>
-      </c>
-      <c r="AC26">
-        <f>W26/SUM($T26:$W26)</f>
-        <v>0.25673096364048659</v>
-      </c>
-      <c r="AE26">
-        <f>Z26*N26</f>
-        <v>2.4279498386447348E-3</v>
-      </c>
-      <c r="AF26">
-        <f>AA26*O26</f>
-        <v>4.805981022155412E-3</v>
-      </c>
-      <c r="AG26">
-        <f>AB26*P26</f>
-        <v>2.6526817116426745E-3</v>
-      </c>
-      <c r="AH26">
-        <f>AC26*Q26</f>
-        <v>5.0018500124710229E-3</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" si="10"/>
-        <v>1.4888462584913845E-2</v>
-      </c>
-      <c r="AK26">
-        <f t="shared" si="11"/>
-        <v>8.7016880965664154E-3</v>
-      </c>
-      <c r="AN26">
-        <f t="shared" si="12"/>
         <v>31612.350000000002</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>62574.75</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>34538.400000000001</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>65125</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>193850.5</v>
       </c>
       <c r="AS26">
@@ -16820,11 +16820,11 @@
       </c>
       <c r="X27">
         <f>SUM(X3:X26)</f>
-        <v>2798615767.1500006</v>
+        <v>2143714447.29</v>
       </c>
       <c r="Y27">
         <f>SUM(Y3:Y26)</f>
-        <v>2785595584.6500006</v>
+        <v>2133695378.1099999</v>
       </c>
       <c r="AM27" t="s">
         <v>30</v>
@@ -16881,11 +16881,11 @@
       </c>
       <c r="AO30">
         <f>AR27/X27</f>
-        <v>3.0520358869050111E-2</v>
+        <v>3.9844279473872091E-2</v>
       </c>
       <c r="AP30">
         <f>AS27/Y27</f>
-        <v>3.0593424084820152E-2</v>
+        <v>3.9940521934057706E-2</v>
       </c>
     </row>
     <row r="31" spans="1:45">
@@ -16893,15 +16893,15 @@
         <v>242193529</v>
       </c>
       <c r="W31">
-        <f t="shared" ref="W31:W53" si="22">V31*B4</f>
+        <f t="shared" ref="W31:W53" si="30">V31*B4</f>
         <v>9329411.999999987</v>
       </c>
       <c r="Z31">
-        <f t="shared" ref="Z31:Z53" si="23">SUM(D4:G4)</f>
+        <f t="shared" ref="Z31:Z53" si="31">SUM(D4:G4)</f>
         <v>1548460</v>
       </c>
       <c r="AA31">
-        <f t="shared" ref="AA31:AA53" si="24">SUM(I4:L4)</f>
+        <f t="shared" ref="AA31:AA53" si="32">SUM(I4:L4)</f>
         <v>50231254</v>
       </c>
       <c r="AO31" t="s">
@@ -16913,15 +16913,15 @@
         <v>198295559</v>
       </c>
       <c r="W32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>7473175.9999999916</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1223991</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>42193569</v>
       </c>
       <c r="AO32">
@@ -16938,15 +16938,15 @@
         <v>190214555</v>
       </c>
       <c r="W33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>5444375.9999999991</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>991736</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>42553618</v>
       </c>
       <c r="AC33" s="4"/>
@@ -16964,15 +16964,15 @@
         <v>181538259</v>
       </c>
       <c r="W34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6292817.9999999953</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1068141</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>38831767</v>
       </c>
       <c r="AC34" s="4"/>
@@ -16990,15 +16990,15 @@
         <v>170805979</v>
       </c>
       <c r="W35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6248307</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1039463</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>36415836</v>
       </c>
       <c r="AC35" s="4"/>
@@ -17016,15 +17016,15 @@
         <v>159345973</v>
       </c>
       <c r="W36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6417481.9999999944</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>991734</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>32831476</v>
       </c>
       <c r="AC36" s="4"/>
@@ -17042,15 +17042,15 @@
         <v>145138636</v>
       </c>
       <c r="W37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>4884979.0000000019</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>798522</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>30241567</v>
       </c>
       <c r="AC37" s="4"/>
@@ -17068,15 +17068,15 @@
         <v>138394717</v>
       </c>
       <c r="W38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>5053109.0000000056</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>730602</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>24530882</v>
       </c>
       <c r="AC38" s="4"/>
@@ -17094,15 +17094,15 @@
         <v>133797422</v>
       </c>
       <c r="W39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>4941144.9999999935</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>792757</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>26475944</v>
       </c>
       <c r="AC39" s="4"/>
@@ -17120,15 +17120,15 @@
         <v>135086622</v>
       </c>
       <c r="W40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>7146294.9999999944</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>997215</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>26578384</v>
       </c>
       <c r="AC40" s="4"/>
@@ -17146,15 +17146,15 @@
         <v>133275309</v>
       </c>
       <c r="W41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>7425950</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1207412</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>27307390</v>
       </c>
       <c r="AC41" s="4"/>
@@ -17172,15 +17172,15 @@
         <v>114364328</v>
       </c>
       <c r="W42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2765171.9999999967</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>503820</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>21778003</v>
       </c>
       <c r="AC42" s="4"/>
@@ -17202,11 +17202,11 @@
         <v>4513564.9999999981</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>708741</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>18533582</v>
       </c>
       <c r="AC43" s="4"/>
@@ -17224,15 +17224,15 @@
         <v>101991189</v>
       </c>
       <c r="W44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>5308404.9999999981</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>821613</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>16561283</v>
       </c>
       <c r="AC44" s="4"/>
@@ -17250,15 +17250,15 @@
         <v>90338345</v>
       </c>
       <c r="W45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>5812291</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>715400</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>14354956</v>
       </c>
       <c r="AC45" s="4"/>
@@ -17276,15 +17276,15 @@
         <v>83257441</v>
       </c>
       <c r="W46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>7045330</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>864127</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>14272145</v>
       </c>
       <c r="AC46" s="4"/>
@@ -17302,15 +17302,15 @@
         <v>80373285</v>
       </c>
       <c r="W47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2647675.9999999995</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>468065</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>17086382</v>
       </c>
       <c r="AC47" s="4"/>
@@ -17328,15 +17328,15 @@
         <v>58617616</v>
       </c>
       <c r="W48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>6908709.0000000186</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>765596</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>9039919</v>
       </c>
       <c r="AC48" s="4"/>
@@ -17354,15 +17354,15 @@
         <v>64444167</v>
       </c>
       <c r="W49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2953213.9999999991</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>382278</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>11622626</v>
       </c>
       <c r="AC49" s="4"/>
@@ -17380,15 +17380,15 @@
         <v>46709983</v>
       </c>
       <c r="W50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>1672176.9999999998</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>250904</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>8245041</v>
       </c>
       <c r="AC50" s="4"/>
@@ -17406,15 +17406,15 @@
         <v>50818468</v>
       </c>
       <c r="W51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>3330609.0000000023</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>377542</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>6207607</v>
       </c>
       <c r="AC51" s="4"/>
@@ -17432,15 +17432,15 @@
         <v>156040895</v>
       </c>
       <c r="W52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>4468753.0000000056</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>702762</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>33124114</v>
       </c>
       <c r="AC52" s="4"/>
@@ -17458,15 +17458,15 @@
         <v>57227415</v>
       </c>
       <c r="W53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>563561</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>94205</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>5459540</v>
       </c>
       <c r="AC53" s="4"/>
@@ -17851,19 +17851,19 @@
         <v>0.25486307833758126</v>
       </c>
       <c r="AE3">
-        <f>Z3*N3</f>
+        <f t="shared" ref="AE3:AE26" si="1">Z3*N3</f>
         <v>6.1207564068686804E-4</v>
       </c>
       <c r="AF3">
-        <f>AA3*O3</f>
+        <f t="shared" ref="AF3:AF26" si="2">AA3*O3</f>
         <v>1.9828485179518725E-3</v>
       </c>
       <c r="AG3">
-        <f>AB3*P3</f>
+        <f t="shared" ref="AG3:AG26" si="3">AB3*P3</f>
         <v>1.0323083911171853E-3</v>
       </c>
       <c r="AH3">
-        <f>AC3*Q3</f>
+        <f t="shared" ref="AH3:AH26" si="4">AC3*Q3</f>
         <v>2.7086762608178766E-3</v>
       </c>
       <c r="AI3">
@@ -17931,7 +17931,7 @@
         <v>30898470</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:Q26" si="1">D4/I4</f>
+        <f t="shared" ref="N4:Q26" si="5">D4/I4</f>
         <v>2.1943263245966902E-3</v>
       </c>
       <c r="O4">
@@ -17951,95 +17951,95 @@
         <v>6.8859917373354845E-3</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S26" si="2">B4/R4</f>
+        <f t="shared" ref="S4:S26" si="6">B4/R4</f>
         <v>1.563091293710916</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T26" si="3">I4*11.55</f>
+        <f t="shared" ref="T4:T26" si="7">I4*11.55</f>
         <v>32192021.400000002</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U26" si="4">J4*7.25</f>
+        <f t="shared" ref="U4:U26" si="8">J4*7.25</f>
         <v>34544060.5</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V26" si="5">K4*1.95</f>
+        <f t="shared" ref="V4:V26" si="9">K4*1.95</f>
         <v>22972751.099999998</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W26" si="6">L4</f>
+        <f t="shared" ref="W4:W26" si="10">L4</f>
         <v>30898470</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X24" si="7">SUM(T4:W4)*2</f>
+        <f t="shared" ref="X4:X24" si="11">SUM(T4:W4)*2</f>
         <v>241214606</v>
       </c>
       <c r="Y4">
-        <f t="shared" ref="Y4:Y24" si="8">SUM(T4:W4)*2</f>
+        <f t="shared" ref="Y4:Y24" si="12">SUM(T4:W4)*2</f>
         <v>241214606</v>
       </c>
       <c r="Z4">
-        <f t="shared" ref="Z4:AA26" si="9">T4/SUM($T4:$W4)</f>
+        <f t="shared" ref="Z4:AA26" si="13">T4/SUM($T4:$W4)</f>
         <v>0.26691602083167387</v>
       </c>
       <c r="AA4">
-        <f>U4/SUM($T4:$W4)</f>
+        <f t="shared" ref="AA4:AA18" si="14">U4/SUM($T4:$W4)</f>
         <v>0.28641765167404498</v>
       </c>
       <c r="AB4">
-        <f>V4/SUM($T4:$W4)</f>
+        <f t="shared" ref="AB4:AB18" si="15">V4/SUM($T4:$W4)</f>
         <v>0.19047562235928614</v>
       </c>
       <c r="AC4">
-        <f>W4/SUM($T4:$W4)</f>
+        <f t="shared" ref="AC4:AC18" si="16">W4/SUM($T4:$W4)</f>
         <v>0.25619070513499503</v>
       </c>
       <c r="AE4">
-        <f>Z4*N4</f>
+        <f t="shared" si="1"/>
         <v>5.8570085096754055E-4</v>
       </c>
       <c r="AF4">
-        <f>AA4*O4</f>
+        <f t="shared" si="2"/>
         <v>1.7008816621991787E-3</v>
       </c>
       <c r="AG4">
-        <f>AB4*P4</f>
+        <f t="shared" si="3"/>
         <v>8.9922539765274398E-4</v>
       </c>
       <c r="AH4">
-        <f>AC4*Q4</f>
+        <f t="shared" si="4"/>
         <v>2.1214635733957173E-3</v>
       </c>
       <c r="AI4">
-        <f t="shared" ref="AI4:AI26" si="10">SUM(AE4:AH4)</f>
+        <f t="shared" ref="AI4:AI26" si="17">SUM(AE4:AH4)</f>
         <v>5.3072714842151807E-3</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK26" si="11">I4/SUM(I$3:I$26)</f>
+        <f t="shared" ref="AK4:AK26" si="18">I4/SUM(I$3:I$26)</f>
         <v>8.1466813486054251E-2</v>
       </c>
       <c r="AN4">
-        <f t="shared" ref="AN4:AN26" si="12">11.55*D4</f>
+        <f t="shared" ref="AN4:AN26" si="19">11.55*D4</f>
         <v>70639.8</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO26" si="13">7.25*E4</f>
+        <f t="shared" ref="AO4:AO26" si="20">7.25*E4</f>
         <v>205138.75</v>
       </c>
       <c r="AP4">
-        <f t="shared" ref="AP4:AP26" si="14">1.95*F4</f>
+        <f t="shared" ref="AP4:AP26" si="21">1.95*F4</f>
         <v>108453.15</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ26" si="15">G4</f>
+        <f t="shared" ref="AQ4:AQ26" si="22">G4</f>
         <v>255864</v>
       </c>
       <c r="AR4">
-        <f t="shared" ref="AR4:AR24" si="16">SUM(AN4:AQ4)*2</f>
+        <f t="shared" ref="AR4:AR24" si="23">SUM(AN4:AQ4)*2</f>
         <v>1280191.3999999999</v>
       </c>
       <c r="AS4">
-        <f t="shared" ref="AS4:AS24" si="17">SUM(AN4:AQ4)*2</f>
+        <f t="shared" ref="AS4:AS24" si="24">SUM(AN4:AQ4)*2</f>
         <v>1280191.3999999999</v>
       </c>
     </row>
@@ -18075,7 +18075,7 @@
         <v>25986494</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.787011100736591E-3</v>
       </c>
       <c r="O5">
@@ -18091,99 +18091,99 @@
         <v>7.147328146690354E-3</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R26" si="18">SUM(D5:G5)/SUM(I5:L5)</f>
+        <f t="shared" ref="R5:R26" si="25">SUM(D5:G5)/SUM(I5:L5)</f>
         <v>5.8821286248622387E-3</v>
       </c>
       <c r="S5">
+        <f t="shared" si="6"/>
+        <v>1.7348791393561542</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>26719308</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="8"/>
+        <v>28991996</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="9"/>
+        <v>19294897.050000001</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="10"/>
+        <v>25986494</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="11"/>
+        <v>201985390.09999999</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="12"/>
+        <v>201985390.09999999</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="13"/>
+        <v>0.26456673907723388</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="14"/>
+        <v>0.28707022805606375</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="15"/>
+        <v>0.19105240275494562</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="16"/>
+        <v>0.25731063011175681</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>4.7278369961669818E-4</v>
+      </c>
+      <c r="AF5">
         <f t="shared" si="2"/>
-        <v>1.7348791393561542</v>
-      </c>
-      <c r="T5">
+        <v>1.4399110740435676E-3</v>
+      </c>
+      <c r="AG5">
         <f t="shared" si="3"/>
-        <v>26719308</v>
-      </c>
-      <c r="U5">
+        <v>7.3877521500996925E-4</v>
+      </c>
+      <c r="AH5">
         <f t="shared" si="4"/>
-        <v>28991996</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="5"/>
-        <v>19294897.050000001</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="6"/>
-        <v>25986494</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="7"/>
-        <v>201985390.09999999</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="8"/>
-        <v>201985390.09999999</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="9"/>
-        <v>0.26456673907723388</v>
-      </c>
-      <c r="AA5">
-        <f>U5/SUM($T5:$W5)</f>
-        <v>0.28707022805606375</v>
-      </c>
-      <c r="AB5">
-        <f>V5/SUM($T5:$W5)</f>
-        <v>0.19105240275494562</v>
-      </c>
-      <c r="AC5">
-        <f>W5/SUM($T5:$W5)</f>
-        <v>0.25731063011175681</v>
-      </c>
-      <c r="AE5">
-        <f>Z5*N5</f>
-        <v>4.7278369961669818E-4</v>
-      </c>
-      <c r="AF5">
-        <f>AA5*O5</f>
-        <v>1.4399110740435676E-3</v>
-      </c>
-      <c r="AG5">
-        <f>AB5*P5</f>
-        <v>7.3877521500996925E-4</v>
-      </c>
-      <c r="AH5">
-        <f>AC5*Q5</f>
         <v>1.83908350904039E-3</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>4.4905534977106249E-3</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>6.7617278650058218E-2</v>
       </c>
       <c r="AN5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>47747.700000000004</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>145420.5</v>
       </c>
       <c r="AP5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>74610.899999999994</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>185734</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>907026.2</v>
       </c>
       <c r="AS5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>907026.2</v>
       </c>
     </row>
@@ -18219,7 +18219,7 @@
         <v>26038352</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.7360227397546528E-3</v>
       </c>
       <c r="O6">
@@ -18235,99 +18235,99 @@
         <v>5.7473683434343314E-3</v>
       </c>
       <c r="R6">
+        <f t="shared" si="25"/>
+        <v>4.8155012342311291E-3</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="6"/>
+        <v>1.540482791358996</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>25867403.100000001</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="8"/>
+        <v>29504462.25</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="9"/>
+        <v>19901861.849999998</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="10"/>
+        <v>26038352</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="11"/>
+        <v>202624158.40000001</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="12"/>
+        <v>202624158.40000001</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="13"/>
+        <v>0.25532397818956221</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="14"/>
+        <v>0.29122353901902742</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="15"/>
+        <v>0.19644115496545841</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="16"/>
+        <v>0.25701132782595187</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="1"/>
+        <v>4.4324823214170097E-4</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>1.2393660360293937E-3</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="3"/>
+        <v>6.5552992816280081E-4</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="4"/>
+        <v>1.4771387694508988E-3</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="17"/>
+        <v>3.8152829657847939E-3</v>
+      </c>
+      <c r="AK6">
         <f t="shared" si="18"/>
-        <v>4.8155012342311291E-3</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="2"/>
-        <v>1.540482791358996</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="3"/>
-        <v>25867403.100000001</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="4"/>
-        <v>29504462.25</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="5"/>
-        <v>19901861.849999998</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="6"/>
-        <v>26038352</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="7"/>
-        <v>202624158.40000001</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="8"/>
-        <v>202624158.40000001</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="9"/>
-        <v>0.25532397818956221</v>
-      </c>
-      <c r="AA6">
-        <f>U6/SUM($T6:$W6)</f>
-        <v>0.29122353901902742</v>
-      </c>
-      <c r="AB6">
-        <f>V6/SUM($T6:$W6)</f>
-        <v>0.19644115496545841</v>
-      </c>
-      <c r="AC6">
-        <f>W6/SUM($T6:$W6)</f>
-        <v>0.25701132782595187</v>
-      </c>
-      <c r="AE6">
-        <f>Z6*N6</f>
-        <v>4.4324823214170097E-4</v>
-      </c>
-      <c r="AF6">
-        <f>AA6*O6</f>
-        <v>1.2393660360293937E-3</v>
-      </c>
-      <c r="AG6">
-        <f>AB6*P6</f>
-        <v>6.5552992816280081E-4</v>
-      </c>
-      <c r="AH6">
-        <f>AC6*Q6</f>
-        <v>1.4771387694508988E-3</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="10"/>
-        <v>3.8152829657847939E-3</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="11"/>
         <v>6.54614035425648E-2</v>
       </c>
       <c r="AN6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>44906.400000000001</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>125562.75</v>
       </c>
       <c r="AP6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>66413.099999999991</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>149652</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>773068.5</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>773068.5</v>
       </c>
     </row>
@@ -18363,7 +18363,7 @@
         <v>23951693</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.794319010025614E-3</v>
       </c>
       <c r="O7">
@@ -18379,99 +18379,99 @@
         <v>6.3996728748986556E-3</v>
       </c>
       <c r="R7">
+        <f t="shared" si="25"/>
+        <v>5.327004563042418E-3</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>1.6713659263817031</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>24151558.200000003</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="8"/>
+        <v>26684727</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="9"/>
+        <v>17761337.099999998</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="10"/>
+        <v>23951693</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="11"/>
+        <v>185098630.59999999</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="12"/>
+        <v>185098630.59999999</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="13"/>
+        <v>0.26095879933538529</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="14"/>
+        <v>0.28832981544489072</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="15"/>
+        <v>0.19191213940833982</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="16"/>
+        <v>0.25879924581138419</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="1"/>
+        <v>4.6824333448094139E-4</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>1.3247504814333296E-3</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="3"/>
+        <v>6.9342976543879402E-4</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="4"/>
+        <v>1.6562305134633448E-3</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="17"/>
+        <v>4.1426540948164099E-3</v>
+      </c>
+      <c r="AK7">
         <f t="shared" si="18"/>
-        <v>5.327004563042418E-3</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>1.6713659263817031</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="3"/>
-        <v>24151558.200000003</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="4"/>
-        <v>26684727</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="5"/>
-        <v>17761337.099999998</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="6"/>
-        <v>23951693</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="7"/>
-        <v>185098630.59999999</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="8"/>
-        <v>185098630.59999999</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="9"/>
-        <v>0.26095879933538529</v>
-      </c>
-      <c r="AA7">
-        <f>U7/SUM($T7:$W7)</f>
-        <v>0.28832981544489072</v>
-      </c>
-      <c r="AB7">
-        <f>V7/SUM($T7:$W7)</f>
-        <v>0.19191213940833982</v>
-      </c>
-      <c r="AC7">
-        <f>W7/SUM($T7:$W7)</f>
-        <v>0.25879924581138419</v>
-      </c>
-      <c r="AE7">
-        <f>Z7*N7</f>
-        <v>4.6824333448094139E-4</v>
-      </c>
-      <c r="AF7">
-        <f>AA7*O7</f>
-        <v>1.3247504814333296E-3</v>
-      </c>
-      <c r="AG7">
-        <f>AB7*P7</f>
-        <v>6.9342976543879402E-4</v>
-      </c>
-      <c r="AH7">
-        <f>AC7*Q7</f>
-        <v>1.6562305134633448E-3</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="10"/>
-        <v>4.1426540948164099E-3</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="11"/>
         <v>6.1119196673899583E-2</v>
       </c>
       <c r="AN7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43335.600000000006</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>122604.75</v>
       </c>
       <c r="AP7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>64176.45</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>153283</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>766799.6</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>766799.6</v>
       </c>
     </row>
@@ -18507,7 +18507,7 @@
         <v>22339159</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9008644514380811E-3</v>
       </c>
       <c r="O8">
@@ -18523,99 +18523,99 @@
         <v>7.4118278132135592E-3</v>
       </c>
       <c r="R8">
+        <f t="shared" si="25"/>
+        <v>6.0872692858129082E-3</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="6"/>
+        <v>1.7223474838643662</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>23132028.150000002</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="8"/>
+        <v>25116392.5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="9"/>
+        <v>16788669.300000001</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="10"/>
+        <v>22339159</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="11"/>
+        <v>174752497.90000001</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="12"/>
+        <v>174752497.90000001</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="13"/>
+        <v>0.26474045782437999</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="14"/>
+        <v>0.28745102704480424</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="15"/>
+        <v>0.19214225263443288</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="16"/>
+        <v>0.25566626249638286</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="1"/>
+        <v>5.0323572513580653E-4</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>1.4880645663148484E-3</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="3"/>
+        <v>7.6677702241874509E-4</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="4"/>
+        <v>1.8949543152710492E-3</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="17"/>
+        <v>4.6530316291404491E-3</v>
+      </c>
+      <c r="AK8">
         <f t="shared" si="18"/>
-        <v>6.0872692858129082E-3</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>1.7223474838643662</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="3"/>
-        <v>23132028.150000002</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="4"/>
-        <v>25116392.5</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="5"/>
-        <v>16788669.300000001</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="6"/>
-        <v>22339159</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="7"/>
-        <v>174752497.90000001</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="8"/>
-        <v>174752497.90000001</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="9"/>
-        <v>0.26474045782437999</v>
-      </c>
-      <c r="AA8">
-        <f>U8/SUM($T8:$W8)</f>
-        <v>0.28745102704480424</v>
-      </c>
-      <c r="AB8">
-        <f>V8/SUM($T8:$W8)</f>
-        <v>0.19214225263443288</v>
-      </c>
-      <c r="AC8">
-        <f>W8/SUM($T8:$W8)</f>
-        <v>0.25566626249638286</v>
-      </c>
-      <c r="AE8">
-        <f>Z8*N8</f>
-        <v>5.0323572513580653E-4</v>
-      </c>
-      <c r="AF8">
-        <f>AA8*O8</f>
-        <v>1.4880645663148484E-3</v>
-      </c>
-      <c r="AG8">
-        <f>AB8*P8</f>
-        <v>7.6677702241874509E-4</v>
-      </c>
-      <c r="AH8">
-        <f>AC8*Q8</f>
-        <v>1.8949543152710492E-3</v>
-      </c>
-      <c r="AI8">
-        <f t="shared" si="10"/>
-        <v>4.6530316291404491E-3</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="11"/>
         <v>5.8539120592477199E-2</v>
       </c>
       <c r="AN8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43970.850000000006</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>130021.5</v>
       </c>
       <c r="AP8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>66998.099999999991</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>165574</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>813128.9</v>
       </c>
       <c r="AS8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>813128.9</v>
       </c>
     </row>
@@ -18651,7 +18651,7 @@
         <v>20103896</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.6442606591336019E-3</v>
       </c>
       <c r="O9">
@@ -18667,99 +18667,99 @@
         <v>7.2533701925238774E-3</v>
       </c>
       <c r="R9">
+        <f t="shared" si="25"/>
+        <v>5.8908103918325211E-3</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="6"/>
+        <v>1.7974224948691628</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="7"/>
+        <v>22141015.050000001</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>22402862.5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="9"/>
+        <v>15055090.049999999</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="10"/>
+        <v>20103896</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="11"/>
+        <v>159405727.19999999</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="12"/>
+        <v>159405727.19999999</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="13"/>
+        <v>0.27779447374836858</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="14"/>
+        <v>0.28107976913391608</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="15"/>
+        <v>0.1888902025597986</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="16"/>
+        <v>0.2522355545579168</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="1"/>
+        <v>4.5676652450916456E-4</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>1.4015556650589405E-3</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="3"/>
+        <v>7.1007298161869297E-4</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>1.8295578529251239E-3</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="17"/>
+        <v>4.3979530241119221E-3</v>
+      </c>
+      <c r="AK9">
         <f t="shared" si="18"/>
-        <v>5.8908103918325211E-3</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="2"/>
-        <v>1.7974224948691628</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="3"/>
-        <v>22141015.050000001</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="4"/>
-        <v>22402862.5</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="5"/>
-        <v>15055090.049999999</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="6"/>
-        <v>20103896</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="7"/>
-        <v>159405727.19999999</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="8"/>
-        <v>159405727.19999999</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="9"/>
-        <v>0.27779447374836858</v>
-      </c>
-      <c r="AA9">
-        <f>U9/SUM($T9:$W9)</f>
-        <v>0.28107976913391608</v>
-      </c>
-      <c r="AB9">
-        <f>V9/SUM($T9:$W9)</f>
-        <v>0.1888902025597986</v>
-      </c>
-      <c r="AC9">
-        <f>W9/SUM($T9:$W9)</f>
-        <v>0.2522355545579168</v>
-      </c>
-      <c r="AE9">
-        <f>Z9*N9</f>
-        <v>4.5676652450916456E-4</v>
-      </c>
-      <c r="AF9">
-        <f>AA9*O9</f>
-        <v>1.4015556650589405E-3</v>
-      </c>
-      <c r="AG9">
-        <f>AB9*P9</f>
-        <v>7.1007298161869297E-4</v>
-      </c>
-      <c r="AH9">
-        <f>AC9*Q9</f>
-        <v>1.8295578529251239E-3</v>
-      </c>
-      <c r="AI9">
-        <f t="shared" si="10"/>
-        <v>4.3979530241119221E-3</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="11"/>
         <v>5.6031210996594027E-2</v>
       </c>
       <c r="AN9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>36405.600000000006</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>111708</v>
       </c>
       <c r="AP9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>56594.85</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>145821</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>701058.9</v>
       </c>
       <c r="AS9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>701058.9</v>
       </c>
     </row>
@@ -18795,7 +18795,7 @@
         <v>18661277</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4764788048062182E-3</v>
       </c>
       <c r="O10">
@@ -18811,99 +18811,99 @@
         <v>5.7284932858560535E-3</v>
       </c>
       <c r="R10">
+        <f t="shared" si="25"/>
+        <v>4.7319637901038656E-3</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="6"/>
+        <v>1.7311458624174074</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="7"/>
+        <v>18993432.150000002</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="8"/>
+        <v>20659607.25</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="9"/>
+        <v>13818160.199999999</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="10"/>
+        <v>18661277</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="11"/>
+        <v>144264953.20000002</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="12"/>
+        <v>144264953.20000002</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="13"/>
+        <v>0.2633131849239736</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="14"/>
+        <v>0.28641200501910946</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="15"/>
+        <v>0.19156641850281345</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="16"/>
+        <v>0.25870839155410336</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="1"/>
+        <v>3.8877633656626728E-4</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>1.1563619319844619E-3</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="3"/>
+        <v>6.0198404445189937E-4</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="4"/>
+        <v>1.4820092840123001E-3</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="17"/>
+        <v>3.6291315970149287E-3</v>
+      </c>
+      <c r="AK10">
         <f t="shared" si="18"/>
-        <v>4.7319637901038656E-3</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="2"/>
-        <v>1.7311458624174074</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="3"/>
-        <v>18993432.150000002</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="4"/>
-        <v>20659607.25</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="5"/>
-        <v>13818160.199999999</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="6"/>
-        <v>18661277</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="7"/>
-        <v>144264953.20000002</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="8"/>
-        <v>144264953.20000002</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="9"/>
-        <v>0.2633131849239736</v>
-      </c>
-      <c r="AA10">
-        <f>U10/SUM($T10:$W10)</f>
-        <v>0.28641200501910946</v>
-      </c>
-      <c r="AB10">
-        <f>V10/SUM($T10:$W10)</f>
-        <v>0.19156641850281345</v>
-      </c>
-      <c r="AC10">
-        <f>W10/SUM($T10:$W10)</f>
-        <v>0.25870839155410336</v>
-      </c>
-      <c r="AE10">
-        <f>Z10*N10</f>
-        <v>3.8877633656626728E-4</v>
-      </c>
-      <c r="AF10">
-        <f>AA10*O10</f>
-        <v>1.1563619319844619E-3</v>
-      </c>
-      <c r="AG10">
-        <f>AB10*P10</f>
-        <v>6.0198404445189937E-4</v>
-      </c>
-      <c r="AH10">
-        <f>AC10*Q10</f>
-        <v>1.4820092840123001E-3</v>
-      </c>
-      <c r="AI10">
-        <f t="shared" si="10"/>
-        <v>3.6291315970149287E-3</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="11"/>
         <v>4.8065773043505636E-2</v>
       </c>
       <c r="AN10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>28043.4</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>83411.25</v>
       </c>
       <c r="AP10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>43422.6</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>106901</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>523556.5</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>523556.5</v>
       </c>
     </row>
@@ -18939,7 +18939,7 @@
         <v>15141954</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.6081562969370003E-3</v>
       </c>
       <c r="O11">
@@ -18955,99 +18955,99 @@
         <v>7.7174980190799682E-3</v>
       </c>
       <c r="R11">
+        <f t="shared" si="25"/>
+        <v>6.2462083507637432E-3</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="6"/>
+        <v>1.6559845628590109</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="7"/>
+        <v>16317816.9</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="8"/>
+        <v>16662211</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="9"/>
+        <v>11071893.299999999</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="10"/>
+        <v>15141954</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="11"/>
+        <v>118387750.39999999</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="12"/>
+        <v>118387750.39999999</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="13"/>
+        <v>0.27566731937834005</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="14"/>
+        <v>0.28148538921810617</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="15"/>
+        <v>0.1870445761929099</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="16"/>
+        <v>0.25580271521064396</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="1"/>
+        <v>4.4331613551802071E-4</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>1.4244294652971125E-3</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="3"/>
+        <v>7.4005545087205246E-4</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>1.9741569479134221E-3</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="17"/>
+        <v>4.5819579996006082E-3</v>
+      </c>
+      <c r="AK11">
         <f t="shared" si="18"/>
-        <v>6.2462083507637432E-3</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>1.6559845628590109</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="3"/>
-        <v>16317816.9</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="4"/>
-        <v>16662211</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="5"/>
-        <v>11071893.299999999</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="6"/>
-        <v>15141954</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="7"/>
-        <v>118387750.39999999</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="8"/>
-        <v>118387750.39999999</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="9"/>
-        <v>0.27566731937834005</v>
-      </c>
-      <c r="AA11">
-        <f>U11/SUM($T11:$W11)</f>
-        <v>0.28148538921810617</v>
-      </c>
-      <c r="AB11">
-        <f>V11/SUM($T11:$W11)</f>
-        <v>0.1870445761929099</v>
-      </c>
-      <c r="AC11">
-        <f>W11/SUM($T11:$W11)</f>
-        <v>0.25580271521064396</v>
-      </c>
-      <c r="AE11">
-        <f>Z11*N11</f>
-        <v>4.4331613551802071E-4</v>
-      </c>
-      <c r="AF11">
-        <f>AA11*O11</f>
-        <v>1.4244294652971125E-3</v>
-      </c>
-      <c r="AG11">
-        <f>AB11*P11</f>
-        <v>7.4005545087205246E-4</v>
-      </c>
-      <c r="AH11">
-        <f>AC11*Q11</f>
-        <v>1.9741569479134221E-3</v>
-      </c>
-      <c r="AI11">
-        <f t="shared" si="10"/>
-        <v>4.5819579996006082E-3</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="11"/>
         <v>4.1294721116577171E-2</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>26241.600000000002</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>84317.5</v>
       </c>
       <c r="AP11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>43806.75</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>116858</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>542447.69999999995</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>542447.69999999995</v>
       </c>
     </row>
@@ -19083,7 +19083,7 @@
         <v>16355960</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.913084229880796E-3</v>
       </c>
       <c r="O12">
@@ -19099,99 +19099,99 @@
         <v>7.6249880777404687E-3</v>
       </c>
       <c r="R12">
+        <f t="shared" si="25"/>
+        <v>6.336884531860318E-3</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>1.6135504846003219</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="7"/>
+        <v>17695535.550000001</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="8"/>
+        <v>17891274.5</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="9"/>
+        <v>11934274.949999999</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="10"/>
+        <v>16355960</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="11"/>
+        <v>127754090</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="12"/>
+        <v>127754090</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="13"/>
+        <v>0.27702495552197193</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="14"/>
+        <v>0.28008926367836834</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="15"/>
+        <v>0.18683198244377144</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="16"/>
+        <v>0.25605379835588826</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="1"/>
+        <v>5.2997207369251344E-4</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>1.5543729363185165E-3</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="3"/>
+        <v>8.0699177615370279E-4</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="4"/>
+        <v>1.9524071597238101E-3</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="17"/>
+        <v>4.843743945888543E-3</v>
+      </c>
+      <c r="AK12">
         <f t="shared" si="18"/>
-        <v>6.336884531860318E-3</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>1.6135504846003219</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="3"/>
-        <v>17695535.550000001</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="4"/>
-        <v>17891274.5</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="5"/>
-        <v>11934274.949999999</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="6"/>
-        <v>16355960</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="7"/>
-        <v>127754090</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="8"/>
-        <v>127754090</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="9"/>
-        <v>0.27702495552197193</v>
-      </c>
-      <c r="AA12">
-        <f>U12/SUM($T12:$W12)</f>
-        <v>0.28008926367836834</v>
-      </c>
-      <c r="AB12">
-        <f>V12/SUM($T12:$W12)</f>
-        <v>0.18683198244377144</v>
-      </c>
-      <c r="AC12">
-        <f>W12/SUM($T12:$W12)</f>
-        <v>0.25605379835588826</v>
-      </c>
-      <c r="AE12">
-        <f>Z12*N12</f>
-        <v>5.2997207369251344E-4</v>
-      </c>
-      <c r="AF12">
-        <f>AA12*O12</f>
-        <v>1.5543729363185165E-3</v>
-      </c>
-      <c r="AG12">
-        <f>AB12*P12</f>
-        <v>8.0699177615370279E-4</v>
-      </c>
-      <c r="AH12">
-        <f>AC12*Q12</f>
-        <v>1.9524071597238101E-3</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="10"/>
-        <v>4.843743945888543E-3</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="11"/>
         <v>4.4781248007858633E-2</v>
       </c>
       <c r="AN12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>33853.050000000003</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>99288.75</v>
       </c>
       <c r="AP12">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>51548.25</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>124714</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>618808.1</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>618808.1</v>
       </c>
     </row>
@@ -19227,7 +19227,7 @@
         <v>16584479</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1207601056135793E-3</v>
       </c>
       <c r="O13">
@@ -19243,99 +19243,99 @@
         <v>9.6947875178954972E-3</v>
       </c>
       <c r="R13">
+        <f t="shared" si="25"/>
+        <v>7.8672578438177439E-3</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>1.9614715236922124</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="7"/>
+        <v>16872205.350000001</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="8"/>
+        <v>17685258.5</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="9"/>
+        <v>11882835.9</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="10"/>
+        <v>16584479</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="11"/>
+        <v>126049557.5</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="12"/>
+        <v>126049557.5</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="13"/>
+        <v>0.26770749036544617</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="14"/>
+        <v>0.28060802196786766</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="15"/>
+        <v>0.18854228663198599</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="16"/>
+        <v>0.26314220103470021</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="1"/>
+        <v>5.6774336554096989E-4</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>1.7555357145938413E-3</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="3"/>
+        <v>9.2687592338434042E-4</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="4"/>
+        <v>2.5511077260227592E-3</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="17"/>
+        <v>5.801262729541911E-3</v>
+      </c>
+      <c r="AK13">
         <f t="shared" si="18"/>
-        <v>7.8672578438177439E-3</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="2"/>
-        <v>1.9614715236922124</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="3"/>
-        <v>16872205.350000001</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="4"/>
-        <v>17685258.5</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="5"/>
-        <v>11882835.9</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="6"/>
-        <v>16584479</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="7"/>
-        <v>126049557.5</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="8"/>
-        <v>126049557.5</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="9"/>
-        <v>0.26770749036544617</v>
-      </c>
-      <c r="AA13">
-        <f>U13/SUM($T13:$W13)</f>
-        <v>0.28060802196786766</v>
-      </c>
-      <c r="AB13">
-        <f>V13/SUM($T13:$W13)</f>
-        <v>0.18854228663198599</v>
-      </c>
-      <c r="AC13">
-        <f>W13/SUM($T13:$W13)</f>
-        <v>0.26314220103470021</v>
-      </c>
-      <c r="AE13">
-        <f>Z13*N13</f>
-        <v>5.6774336554096989E-4</v>
-      </c>
-      <c r="AF13">
-        <f>AA13*O13</f>
-        <v>1.7555357145938413E-3</v>
-      </c>
-      <c r="AG13">
-        <f>AB13*P13</f>
-        <v>9.2687592338434042E-4</v>
-      </c>
-      <c r="AH13">
-        <f>AC13*Q13</f>
-        <v>2.5511077260227592E-3</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="10"/>
-        <v>5.801262729541911E-3</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="11"/>
         <v>4.269768553107562E-2</v>
       </c>
       <c r="AN13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>35781.9</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>110642.25</v>
       </c>
       <c r="AP13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>58416.15</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>160783</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>731246.6</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>731246.6</v>
       </c>
     </row>
@@ -19371,7 +19371,7 @@
         <v>16779978</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3317962039948788E-3</v>
       </c>
       <c r="O14">
@@ -19387,99 +19387,99 @@
         <v>9.8681297436742765E-3</v>
       </c>
       <c r="R14">
+        <f t="shared" si="25"/>
+        <v>8.0881402433553694E-3</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>1.7130887747070462</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="7"/>
+        <v>18584643</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="8"/>
+        <v>18447668.5</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="9"/>
+        <v>12428999.699999999</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="10"/>
+        <v>16779978</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="11"/>
+        <v>132482578.40000001</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="12"/>
+        <v>132482578.40000001</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="13"/>
+        <v>0.28055980226906574</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="14"/>
+        <v>0.27849199076276432</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="15"/>
+        <v>0.18763221323295137</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="16"/>
+        <v>0.25331599373521851</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>6.5420828192456126E-4</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>1.8787904266814902E-3</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="3"/>
+        <v>1.011513374954061E-3</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>2.4997550923269163E-3</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="17"/>
+        <v>6.0442671758870288E-3</v>
+      </c>
+      <c r="AK14">
         <f t="shared" si="18"/>
-        <v>8.0881402433553694E-3</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="2"/>
-        <v>1.7130887747070462</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="3"/>
-        <v>18584643</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="4"/>
-        <v>18447668.5</v>
-      </c>
-      <c r="V14">
-        <f t="shared" si="5"/>
-        <v>12428999.699999999</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="6"/>
-        <v>16779978</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="7"/>
-        <v>132482578.40000001</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="8"/>
-        <v>132482578.40000001</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="9"/>
-        <v>0.28055980226906574</v>
-      </c>
-      <c r="AA14">
-        <f>U14/SUM($T14:$W14)</f>
-        <v>0.27849199076276432</v>
-      </c>
-      <c r="AB14">
-        <f>V14/SUM($T14:$W14)</f>
-        <v>0.18763221323295137</v>
-      </c>
-      <c r="AC14">
-        <f>W14/SUM($T14:$W14)</f>
-        <v>0.25331599373521851</v>
-      </c>
-      <c r="AE14">
-        <f>Z14*N14</f>
-        <v>6.5420828192456126E-4</v>
-      </c>
-      <c r="AF14">
-        <f>AA14*O14</f>
-        <v>1.8787904266814902E-3</v>
-      </c>
-      <c r="AG14">
-        <f>AB14*P14</f>
-        <v>1.011513374954061E-3</v>
-      </c>
-      <c r="AH14">
-        <f>AC14*Q14</f>
-        <v>2.4997550923269163E-3</v>
-      </c>
-      <c r="AI14">
-        <f t="shared" si="10"/>
-        <v>6.0442671758870288E-3</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="11"/>
         <v>4.7031269834639955E-2</v>
       </c>
       <c r="AN14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>43335.600000000006</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>124453.5</v>
       </c>
       <c r="AP14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>67003.95</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>165587</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>800760.1</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>800760.1</v>
       </c>
     </row>
@@ -19515,7 +19515,7 @@
         <v>13364426</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.7353247256821974E-3</v>
       </c>
       <c r="O15">
@@ -19531,99 +19531,99 @@
         <v>5.1310845673431839E-3</v>
       </c>
       <c r="R15">
+        <f t="shared" si="25"/>
+        <v>4.3741843547362904E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>1.2880862713325261</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="7"/>
+        <v>13285006.350000001</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="8"/>
+        <v>15122296.5</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="9"/>
+        <v>10096175.699999999</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="10"/>
+        <v>13364426</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="11"/>
+        <v>103735809.09999999</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="12"/>
+        <v>103735809.09999999</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="13"/>
+        <v>0.25613154156234375</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="14"/>
+        <v>0.29155402808729819</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="15"/>
+        <v>0.19465169814730832</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="16"/>
+        <v>0.25766273220304986</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="1"/>
+        <v>4.4447139710023252E-4</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>1.1755342832719083E-3</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="3"/>
+        <v>6.12092396549303E-4</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="4"/>
+        <v>1.3220892687865488E-3</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="17"/>
+        <v>3.5541873457079929E-3</v>
+      </c>
+      <c r="AK15">
         <f t="shared" si="18"/>
-        <v>4.3741843547362904E-3</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="2"/>
-        <v>1.2880862713325261</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="3"/>
-        <v>13285006.350000001</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="4"/>
-        <v>15122296.5</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="5"/>
-        <v>10096175.699999999</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
-        <v>13364426</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="7"/>
-        <v>103735809.09999999</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="8"/>
-        <v>103735809.09999999</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="9"/>
-        <v>0.25613154156234375</v>
-      </c>
-      <c r="AA15">
-        <f>U15/SUM($T15:$W15)</f>
-        <v>0.29155402808729819</v>
-      </c>
-      <c r="AB15">
-        <f>V15/SUM($T15:$W15)</f>
-        <v>0.19465169814730832</v>
-      </c>
-      <c r="AC15">
-        <f>W15/SUM($T15:$W15)</f>
-        <v>0.25766273220304986</v>
-      </c>
-      <c r="AE15">
-        <f>Z15*N15</f>
-        <v>4.4447139710023252E-4</v>
-      </c>
-      <c r="AF15">
-        <f>AA15*O15</f>
-        <v>1.1755342832719083E-3</v>
-      </c>
-      <c r="AG15">
-        <f>AB15*P15</f>
-        <v>6.12092396549303E-4</v>
-      </c>
-      <c r="AH15">
-        <f>AC15*Q15</f>
-        <v>1.3220892687865488E-3</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="10"/>
-        <v>3.5541873457079929E-3</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="11"/>
         <v>3.3619732076734285E-2</v>
       </c>
       <c r="AN15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>23053.800000000003</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>60972.5</v>
       </c>
       <c r="AP15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>31747.95</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>68574</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>368696.5</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>368696.5</v>
       </c>
     </row>
@@ -19659,7 +19659,7 @@
         <v>11425316</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.2582485276275988E-3</v>
       </c>
       <c r="O16">
@@ -19675,99 +19675,99 @@
         <v>8.8789666736569916E-3</v>
       </c>
       <c r="R16">
+        <f t="shared" si="25"/>
+        <v>7.3454769833483889E-3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>1.4841791260278636</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="7"/>
+        <v>12290343.450000001</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="8"/>
+        <v>12638743.75</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="9"/>
+        <v>8386739.3999999994</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>11425316</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>89482285.200000003</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="12"/>
+        <v>89482285.200000003</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="13"/>
+        <v>0.27469891772500243</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="14"/>
+        <v>0.28248594058033732</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="15"/>
+        <v>0.18745027311841606</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="16"/>
+        <v>0.25536486857624419</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="1"/>
+        <v>6.2033842649338164E-4</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>1.7375897324535469E-3</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="3"/>
+        <v>9.3997711180491834E-4</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="4"/>
+        <v>2.2673761577112696E-3</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="17"/>
+        <v>5.5652814284631166E-3</v>
+      </c>
+      <c r="AK16">
         <f t="shared" si="18"/>
-        <v>7.3454769833483889E-3</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="2"/>
-        <v>1.4841791260278636</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="3"/>
-        <v>12290343.450000001</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="4"/>
-        <v>12638743.75</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="5"/>
-        <v>8386739.3999999994</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="6"/>
-        <v>11425316</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="7"/>
-        <v>89482285.200000003</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="8"/>
-        <v>89482285.200000003</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="9"/>
-        <v>0.27469891772500243</v>
-      </c>
-      <c r="AA16">
-        <f>U16/SUM($T16:$W16)</f>
-        <v>0.28248594058033732</v>
-      </c>
-      <c r="AB16">
-        <f>V16/SUM($T16:$W16)</f>
-        <v>0.18745027311841606</v>
-      </c>
-      <c r="AC16">
-        <f>W16/SUM($T16:$W16)</f>
-        <v>0.25536486857624419</v>
-      </c>
-      <c r="AE16">
-        <f>Z16*N16</f>
-        <v>6.2033842649338164E-4</v>
-      </c>
-      <c r="AF16">
-        <f>AA16*O16</f>
-        <v>1.7375897324535469E-3</v>
-      </c>
-      <c r="AG16">
-        <f>AB16*P16</f>
-        <v>9.3997711180491834E-4</v>
-      </c>
-      <c r="AH16">
-        <f>AC16*Q16</f>
-        <v>2.2673761577112696E-3</v>
-      </c>
-      <c r="AI16">
-        <f t="shared" si="10"/>
-        <v>5.5652814284631166E-3</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="11"/>
         <v>3.1102586106031185E-2</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>27754.65</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>77741.75</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>42055.65</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>101445</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>497994.1</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>497994.1</v>
       </c>
     </row>
@@ -19803,7 +19803,7 @@
         <v>10225146</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.3725870789407175E-3</v>
       </c>
       <c r="O17">
@@ -19819,99 +19819,99 @@
         <v>1.0398677925968E-2</v>
       </c>
       <c r="R17">
+        <f t="shared" si="25"/>
+        <v>8.5027832686634247E-3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>1.4191700442910062</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>11561746.350000001</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="8"/>
+        <v>11267471.5</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="9"/>
+        <v>7372922.7000000002</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>10225146</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>80854573.099999994</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="12"/>
+        <v>80854573.099999994</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="13"/>
+        <v>0.28598868083071982</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="14"/>
+        <v>0.27870956627436577</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="15"/>
+        <v>0.1823749088596697</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="16"/>
+        <v>0.25292684403524485</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="1"/>
+        <v>6.7853304886226671E-4</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>1.9186979047942066E-3</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="3"/>
+        <v>1.0329471395106532E-3</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="4"/>
+        <v>2.6301047899540517E-3</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="17"/>
+        <v>6.2602828831211776E-3</v>
+      </c>
+      <c r="AK17">
         <f t="shared" si="18"/>
-        <v>8.5027832686634247E-3</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="2"/>
-        <v>1.4191700442910062</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="3"/>
-        <v>11561746.350000001</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="4"/>
-        <v>11267471.5</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="5"/>
-        <v>7372922.7000000002</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="6"/>
-        <v>10225146</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="7"/>
-        <v>80854573.099999994</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="8"/>
-        <v>80854573.099999994</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="9"/>
-        <v>0.28598868083071982</v>
-      </c>
-      <c r="AA17">
-        <f>U17/SUM($T17:$W17)</f>
-        <v>0.27870956627436577</v>
-      </c>
-      <c r="AB17">
-        <f>V17/SUM($T17:$W17)</f>
-        <v>0.1823749088596697</v>
-      </c>
-      <c r="AC17">
-        <f>W17/SUM($T17:$W17)</f>
-        <v>0.25292684403524485</v>
-      </c>
-      <c r="AE17">
-        <f>Z17*N17</f>
-        <v>6.7853304886226671E-4</v>
-      </c>
-      <c r="AF17">
-        <f>AA17*O17</f>
-        <v>1.9186979047942066E-3</v>
-      </c>
-      <c r="AG17">
-        <f>AB17*P17</f>
-        <v>1.0329471395106532E-3</v>
-      </c>
-      <c r="AH17">
-        <f>AC17*Q17</f>
-        <v>2.6301047899540517E-3</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="10"/>
-        <v>6.2602828831211776E-3</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="11"/>
         <v>2.9258760168086824E-2</v>
       </c>
       <c r="AN17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>27431.25</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>77567.75</v>
       </c>
       <c r="AP17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>41759.25</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>106328</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>506172.5</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>506172.5</v>
       </c>
     </row>
@@ -19947,7 +19947,7 @@
         <v>8838860</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5562048285406736E-3</v>
       </c>
       <c r="O18">
@@ -19963,99 +19963,99 @@
         <v>1.1055611243983953E-2</v>
       </c>
       <c r="R18">
+        <f t="shared" si="25"/>
+        <v>8.5743209522899273E-3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>1.957786790220386</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="7"/>
+        <v>11266447.5</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="8"/>
+        <v>9396681.5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="9"/>
+        <v>6326876.3999999994</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="10"/>
+        <v>8838860</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="11"/>
+        <v>71657730.799999997</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="12"/>
+        <v>71657730.799999997</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="13"/>
+        <v>0.31445169625717484</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="14"/>
+        <v>0.26226567308491999</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="15"/>
+        <v>0.17658601045178504</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="16"/>
+        <v>0.24669662020612018</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="1"/>
+        <v>4.8935124805822073E-4</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="2"/>
+        <v>1.7244336182635582E-3</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="3"/>
+        <v>8.3406911344728195E-4</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="4"/>
+        <v>2.7273819282036212E-3</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="17"/>
+        <v>5.7752359079726815E-3</v>
+      </c>
+      <c r="AK18">
         <f t="shared" si="18"/>
-        <v>8.5743209522899273E-3</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="2"/>
-        <v>1.957786790220386</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="3"/>
-        <v>11266447.5</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="4"/>
-        <v>9396681.5</v>
-      </c>
-      <c r="V18">
-        <f t="shared" si="5"/>
-        <v>6326876.3999999994</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="6"/>
-        <v>8838860</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="7"/>
-        <v>71657730.799999997</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="8"/>
-        <v>71657730.799999997</v>
-      </c>
-      <c r="Z18">
-        <f t="shared" si="9"/>
-        <v>0.31445169625717484</v>
-      </c>
-      <c r="AA18">
-        <f>U18/SUM($T18:$W18)</f>
-        <v>0.26226567308491999</v>
-      </c>
-      <c r="AB18">
-        <f>V18/SUM($T18:$W18)</f>
-        <v>0.17658601045178504</v>
-      </c>
-      <c r="AC18">
-        <f>W18/SUM($T18:$W18)</f>
-        <v>0.24669662020612018</v>
-      </c>
-      <c r="AE18">
-        <f>Z18*N18</f>
-        <v>4.8935124805822073E-4</v>
-      </c>
-      <c r="AF18">
-        <f>AA18*O18</f>
-        <v>1.7244336182635582E-3</v>
-      </c>
-      <c r="AG18">
-        <f>AB18*P18</f>
-        <v>8.3406911344728195E-4</v>
-      </c>
-      <c r="AH18">
-        <f>AC18*Q18</f>
-        <v>2.7273819282036212E-3</v>
-      </c>
-      <c r="AI18">
-        <f t="shared" si="10"/>
-        <v>5.7752359079726815E-3</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="11"/>
         <v>2.851146144966598E-2</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>17532.900000000001</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>61784.5</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>29883.75</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>97719</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>413840.3</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>413840.3</v>
       </c>
     </row>
@@ -20091,115 +20091,115 @@
         <v>8781448</v>
       </c>
       <c r="N19">
+        <f t="shared" si="5"/>
+        <v>2.2212643985705291E-3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>9.5476709032311889E-3</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>7.2359760125540124E-3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>1.5987568337249163E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="25"/>
+        <v>1.2467292057360684E-2</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>1.9754664811578002</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="7"/>
+        <v>11871009.15</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="8"/>
+        <v>9297450.75</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="9"/>
+        <v>6201969.1499999994</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="10"/>
+        <v>8781448</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="11"/>
+        <v>72303754.099999994</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="12"/>
+        <v>72303754.099999994</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="13"/>
+        <v>0.3283649458527908</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="13"/>
+        <v>0.25717753844817309</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" ref="AB19:AC26" si="26">V19/SUM($T19:$W19)</f>
+        <v>0.1715531711236554</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="26"/>
+        <v>0.24290434457538079</v>
+      </c>
+      <c r="AE19">
         <f t="shared" si="1"/>
-        <v>2.2212643985705291E-3</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="1"/>
-        <v>9.5476709032311889E-3</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="1"/>
-        <v>7.2359760125540124E-3</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
-        <v>1.5987568337249163E-2</v>
-      </c>
-      <c r="R19">
+        <v>7.2938536396134374E-4</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="2"/>
+        <v>2.4554465008062424E-3</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="3"/>
+        <v>1.2413546311283441E-3</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="4"/>
+        <v>3.8834498083136185E-3</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="17"/>
+        <v>8.3096363042095486E-3</v>
+      </c>
+      <c r="AK19">
         <f t="shared" si="18"/>
-        <v>1.2467292057360684E-2</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="2"/>
-        <v>1.9754664811578002</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="3"/>
-        <v>11871009.15</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="4"/>
-        <v>9297450.75</v>
-      </c>
-      <c r="V19">
-        <f t="shared" si="5"/>
-        <v>6201969.1499999994</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="6"/>
-        <v>8781448</v>
-      </c>
-      <c r="X19">
-        <f t="shared" si="7"/>
-        <v>72303754.099999994</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="8"/>
-        <v>72303754.099999994</v>
-      </c>
-      <c r="Z19">
-        <f t="shared" si="9"/>
-        <v>0.3283649458527908</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="9"/>
-        <v>0.25717753844817309</v>
-      </c>
-      <c r="AB19">
-        <f>V19/SUM($T19:$W19)</f>
-        <v>0.1715531711236554</v>
-      </c>
-      <c r="AC19">
-        <f>W19/SUM($T19:$W19)</f>
-        <v>0.24290434457538079</v>
-      </c>
-      <c r="AE19">
-        <f>Z19*N19</f>
-        <v>7.2938536396134374E-4</v>
-      </c>
-      <c r="AF19">
-        <f>AA19*O19</f>
-        <v>2.4554465008062424E-3</v>
-      </c>
-      <c r="AG19">
-        <f>AB19*P19</f>
-        <v>1.2413546311283441E-3</v>
-      </c>
-      <c r="AH19">
-        <f>AC19*Q19</f>
-        <v>3.8834498083136185E-3</v>
-      </c>
-      <c r="AI19">
-        <f t="shared" si="10"/>
-        <v>8.3096363042095486E-3</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="11"/>
         <v>3.0041396788904145E-2</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>26368.65</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>88769</v>
       </c>
       <c r="AP19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>44877.299999999996</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>140394</v>
       </c>
       <c r="AR19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>600817.89999999991</v>
       </c>
       <c r="AS19">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>600817.89999999991</v>
       </c>
     </row>
@@ -20235,115 +20235,115 @@
         <v>10705381</v>
       </c>
       <c r="N20">
+        <f t="shared" si="5"/>
+        <v>1.5127958258629116E-3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>3.9455293616245156E-3</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>3.1716598850752425E-3</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>5.2013095096755547E-3</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="25"/>
+        <v>4.4307214950479274E-3</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>1.5727820569887097</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="7"/>
+        <v>10184917.050000001</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="8"/>
+        <v>11686644.75</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="9"/>
+        <v>7580116.0499999998</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="10"/>
+        <v>10705381</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="11"/>
+        <v>80314117.700000003</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="12"/>
+        <v>80314117.700000003</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="13"/>
+        <v>0.2536270668637377</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="13"/>
+        <v>0.29102342364398531</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="26"/>
+        <v>0.1887617337294113</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="26"/>
+        <v>0.26658777576286563</v>
+      </c>
+      <c r="AE20">
         <f t="shared" si="1"/>
-        <v>1.5127958258629116E-3</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="1"/>
-        <v>3.9455293616245156E-3</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="1"/>
-        <v>3.1716598850752425E-3</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="1"/>
-        <v>5.2013095096755547E-3</v>
-      </c>
-      <c r="R20">
+        <v>3.8368596807731599E-4</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="2"/>
+        <v>1.1482414629078344E-3</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="3"/>
+        <v>5.9868801870682819E-4</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="4"/>
+        <v>1.3866055332386474E-3</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="17"/>
+        <v>3.5172209829306264E-3</v>
+      </c>
+      <c r="AK20">
         <f t="shared" si="18"/>
-        <v>4.4307214950479274E-3</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="2"/>
-        <v>1.5727820569887097</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="3"/>
-        <v>10184917.050000001</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="4"/>
-        <v>11686644.75</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="5"/>
-        <v>7580116.0499999998</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="6"/>
-        <v>10705381</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="7"/>
-        <v>80314117.700000003</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="8"/>
-        <v>80314117.700000003</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="9"/>
-        <v>0.2536270668637377</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="9"/>
-        <v>0.29102342364398531</v>
-      </c>
-      <c r="AB20">
-        <f>V20/SUM($T20:$W20)</f>
-        <v>0.1887617337294113</v>
-      </c>
-      <c r="AC20">
-        <f>W20/SUM($T20:$W20)</f>
-        <v>0.26658777576286563</v>
-      </c>
-      <c r="AE20">
-        <f>Z20*N20</f>
-        <v>3.8368596807731599E-4</v>
-      </c>
-      <c r="AF20">
-        <f>AA20*O20</f>
-        <v>1.1482414629078344E-3</v>
-      </c>
-      <c r="AG20">
-        <f>AB20*P20</f>
-        <v>5.9868801870682819E-4</v>
-      </c>
-      <c r="AH20">
-        <f>AC20*Q20</f>
-        <v>1.3866055332386474E-3</v>
-      </c>
-      <c r="AI20">
-        <f t="shared" si="10"/>
-        <v>3.5172209829306264E-3</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="11"/>
         <v>2.5774483912441856E-2</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>15407.7</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>46110</v>
       </c>
       <c r="AP20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>24041.55</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>55682</v>
       </c>
       <c r="AR20">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>282482.5</v>
       </c>
       <c r="AS20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>282482.5</v>
       </c>
     </row>
@@ -20379,115 +20379,115 @@
         <v>5384209</v>
       </c>
       <c r="N21">
+        <f t="shared" si="5"/>
+        <v>2.1844784557686851E-3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>1.4623186175715928E-2</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>9.016755407621542E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>2.7478873869866492E-2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="25"/>
+        <v>1.9903828784306583E-2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>2.0164890439442589</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="7"/>
+        <v>9242206.0500000007</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="8"/>
+        <v>5795265.75</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="9"/>
+        <v>4009535.4</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="10"/>
+        <v>5384209</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="11"/>
+        <v>48862432.399999999</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="12"/>
+        <v>48862432.399999999</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="13"/>
+        <v>0.3782949638831325</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="13"/>
+        <v>0.23720741949801091</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="26"/>
+        <v>0.16411526004996838</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="26"/>
+        <v>0.2203823565688883</v>
+      </c>
+      <c r="AE21">
         <f t="shared" si="1"/>
-        <v>2.1844784557686851E-3</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="1"/>
-        <v>1.4623186175715928E-2</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="1"/>
-        <v>9.016755407621542E-3</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="1"/>
-        <v>2.7478873869866492E-2</v>
-      </c>
-      <c r="R21">
+        <v>8.2637719852849572E-4</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>3.4687282575805618E-3</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="3"/>
+        <v>1.479787158528768E-3</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="4"/>
+        <v>6.0558589793004245E-3</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="17"/>
+        <v>1.183075159393825E-2</v>
+      </c>
+      <c r="AK21">
         <f t="shared" si="18"/>
-        <v>1.9903828784306583E-2</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="2"/>
-        <v>2.0164890439442589</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="3"/>
-        <v>9242206.0500000007</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="4"/>
-        <v>5795265.75</v>
-      </c>
-      <c r="V21">
-        <f t="shared" si="5"/>
-        <v>4009535.4</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="6"/>
-        <v>5384209</v>
-      </c>
-      <c r="X21">
-        <f t="shared" si="7"/>
-        <v>48862432.399999999</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="8"/>
-        <v>48862432.399999999</v>
-      </c>
-      <c r="Z21">
-        <f t="shared" si="9"/>
-        <v>0.3782949638831325</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="9"/>
-        <v>0.23720741949801091</v>
-      </c>
-      <c r="AB21">
-        <f>V21/SUM($T21:$W21)</f>
-        <v>0.16411526004996838</v>
-      </c>
-      <c r="AC21">
-        <f>W21/SUM($T21:$W21)</f>
-        <v>0.2203823565688883</v>
-      </c>
-      <c r="AE21">
-        <f>Z21*N21</f>
-        <v>8.2637719852849572E-4</v>
-      </c>
-      <c r="AF21">
-        <f>AA21*O21</f>
-        <v>3.4687282575805618E-3</v>
-      </c>
-      <c r="AG21">
-        <f>AB21*P21</f>
-        <v>1.479787158528768E-3</v>
-      </c>
-      <c r="AH21">
-        <f>AC21*Q21</f>
-        <v>6.0558589793004245E-3</v>
-      </c>
-      <c r="AI21">
-        <f t="shared" si="10"/>
-        <v>1.183075159393825E-2</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="11"/>
         <v>2.3388810137751469E-2</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>20189.400000000001</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>84745.25</v>
       </c>
       <c r="AP21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>36153</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>147952</v>
       </c>
       <c r="AR21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>578079.30000000005</v>
       </c>
       <c r="AS21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>578079.30000000005</v>
       </c>
     </row>
@@ -20523,115 +20523,115 @@
         <v>7296980</v>
       </c>
       <c r="N22">
+        <f t="shared" si="5"/>
+        <v>1.50778203098961E-3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>5.0891421307931121E-3</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>3.8845260083681097E-3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>8.0732028866736649E-3</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="25"/>
+        <v>6.4829583262852987E-3</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="6"/>
+        <v>2.0118727485071473</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="7"/>
+        <v>8004970.0500000007</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="8"/>
+        <v>7722765.25</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="9"/>
+        <v>5006363.7</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="10"/>
+        <v>7296980</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="11"/>
+        <v>56062158</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="12"/>
+        <v>56062158</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="13"/>
+        <v>0.28557480966037735</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="13"/>
+        <v>0.2755072414443982</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="26"/>
+        <v>0.17860046343560304</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="26"/>
+        <v>0.26031748545962147</v>
+      </c>
+      <c r="AE22">
         <f t="shared" si="1"/>
-        <v>1.50778203098961E-3</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="1"/>
-        <v>5.0891421307931121E-3</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="1"/>
-        <v>3.8845260083681097E-3</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
-        <v>8.0732028866736649E-3</v>
-      </c>
-      <c r="R22">
+        <v>4.3058456650919505E-4</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="2"/>
+        <v>1.4020955097732771E-3</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="3"/>
+        <v>6.9377814532219756E-4</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="4"/>
+        <v>2.1015958750642458E-3</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="17"/>
+        <v>4.6280540966689154E-3</v>
+      </c>
+      <c r="AK22">
         <f t="shared" si="18"/>
-        <v>6.4829583262852987E-3</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="2"/>
-        <v>2.0118727485071473</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="3"/>
-        <v>8004970.0500000007</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="4"/>
-        <v>7722765.25</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="5"/>
-        <v>5006363.7</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="6"/>
-        <v>7296980</v>
-      </c>
-      <c r="X22">
-        <f t="shared" si="7"/>
-        <v>56062158</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="8"/>
-        <v>56062158</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="9"/>
-        <v>0.28557480966037735</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="9"/>
-        <v>0.2755072414443982</v>
-      </c>
-      <c r="AB22">
-        <f>V22/SUM($T22:$W22)</f>
-        <v>0.17860046343560304</v>
-      </c>
-      <c r="AC22">
-        <f>W22/SUM($T22:$W22)</f>
-        <v>0.26031748545962147</v>
-      </c>
-      <c r="AE22">
-        <f>Z22*N22</f>
-        <v>4.3058456650919505E-4</v>
-      </c>
-      <c r="AF22">
-        <f>AA22*O22</f>
-        <v>1.4020955097732771E-3</v>
-      </c>
-      <c r="AG22">
-        <f>AB22*P22</f>
-        <v>6.9377814532219756E-4</v>
-      </c>
-      <c r="AH22">
-        <f>AC22*Q22</f>
-        <v>2.1015958750642458E-3</v>
-      </c>
-      <c r="AI22">
-        <f t="shared" si="10"/>
-        <v>4.6280540966689154E-3</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="11"/>
         <v>2.0257795989934338E-2</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>12069.75</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>39302.25</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>19447.349999999999</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>58910</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>259458.7</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>259458.7</v>
       </c>
     </row>
@@ -20667,115 +20667,115 @@
         <v>5119843</v>
       </c>
       <c r="N23">
+        <f t="shared" si="5"/>
+        <v>1.555035213008364E-3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>4.1593008345719119E-3</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>3.054912337868477E-3</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>5.6597438632395563E-3</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="25"/>
+        <v>4.6951858699065289E-3</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="6"/>
+        <v>1.6163771963294404</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="7"/>
+        <v>5139819.3000000007</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="8"/>
+        <v>5614465.25</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="9"/>
+        <v>3716276.85</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="10"/>
+        <v>5119843</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="11"/>
+        <v>39180808.799999997</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="12"/>
+        <v>39180808.799999997</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="13"/>
+        <v>0.2623641245506908</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="13"/>
+        <v>0.28659261623001514</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="26"/>
+        <v>0.18969883286329711</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="26"/>
+        <v>0.26134442635599703</v>
+      </c>
+      <c r="AE23">
         <f t="shared" si="1"/>
-        <v>1.555035213008364E-3</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
-        <v>4.1593008345719119E-3</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="1"/>
-        <v>3.054912337868477E-3</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>5.6597438632395563E-3</v>
-      </c>
-      <c r="R23">
+        <v>4.0798545230643642E-4</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="2"/>
+        <v>1.1920249078676496E-3</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="3"/>
+        <v>5.795133049933365E-4</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="4"/>
+        <v>1.4791425132602164E-3</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="17"/>
+        <v>3.6586661784276386E-3</v>
+      </c>
+      <c r="AK23">
         <f t="shared" si="18"/>
-        <v>4.6951858699065289E-3</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="2"/>
-        <v>1.6163771963294404</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="3"/>
-        <v>5139819.3000000007</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="4"/>
-        <v>5614465.25</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="5"/>
-        <v>3716276.85</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="6"/>
-        <v>5119843</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="7"/>
-        <v>39180808.799999997</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="8"/>
-        <v>39180808.799999997</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="9"/>
-        <v>0.2623641245506908</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="9"/>
-        <v>0.28659261623001514</v>
-      </c>
-      <c r="AB23">
-        <f>V23/SUM($T23:$W23)</f>
-        <v>0.18969883286329711</v>
-      </c>
-      <c r="AC23">
-        <f>W23/SUM($T23:$W23)</f>
-        <v>0.26134442635599703</v>
-      </c>
-      <c r="AE23">
-        <f>Z23*N23</f>
-        <v>4.0798545230643642E-4</v>
-      </c>
-      <c r="AF23">
-        <f>AA23*O23</f>
-        <v>1.1920249078676496E-3</v>
-      </c>
-      <c r="AG23">
-        <f>AB23*P23</f>
-        <v>5.795133049933365E-4</v>
-      </c>
-      <c r="AH23">
-        <f>AC23*Q23</f>
-        <v>1.4791425132602164E-3</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="10"/>
-        <v>3.6586661784276386E-3</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="11"/>
         <v>1.3007095611123133E-2</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7992.6</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>23352.25</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>11352.9</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>28977</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>143349.5</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>143349.5</v>
       </c>
     </row>
@@ -20811,115 +20811,115 @@
         <v>3887594</v>
       </c>
       <c r="N24">
+        <f t="shared" si="5"/>
+        <v>1.3083186492991972E-3</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>6.0622130528273374E-3</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>4.4868203863863082E-3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>1.1249374291656998E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="25"/>
+        <v>8.6394000135640026E-3</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="6"/>
+        <v>1.7069587468429299</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="7"/>
+        <v>5014374.75</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="8"/>
+        <v>3992024</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="9"/>
+        <v>2603725.7999999998</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="10"/>
+        <v>3887594</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="11"/>
+        <v>30995437.100000001</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="12"/>
+        <v>30995437.100000001</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="13"/>
+        <v>0.32355567265092705</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="13"/>
+        <v>0.25758784992259393</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="26"/>
+        <v>0.16800703868763958</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="26"/>
+        <v>0.25084943873883941</v>
+      </c>
+      <c r="AE24">
         <f t="shared" si="1"/>
-        <v>1.3083186492991972E-3</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
-        <v>6.0622130528273374E-3</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
-        <v>4.4868203863863082E-3</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
-        <v>1.1249374291656998E-2</v>
-      </c>
-      <c r="R24">
+        <v>4.2331392061575407E-4</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>1.5615524260504782E-3</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="3"/>
+        <v>7.5381740624009446E-4</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="4"/>
+        <v>2.8218992272252873E-3</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="17"/>
+        <v>5.5605829801316144E-3</v>
+      </c>
+      <c r="AK24">
         <f t="shared" si="18"/>
-        <v>8.6394000135640026E-3</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="2"/>
-        <v>1.7069587468429299</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="3"/>
-        <v>5014374.75</v>
-      </c>
-      <c r="U24">
-        <f t="shared" si="4"/>
-        <v>3992024</v>
-      </c>
-      <c r="V24">
-        <f t="shared" si="5"/>
-        <v>2603725.7999999998</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="6"/>
-        <v>3887594</v>
-      </c>
-      <c r="X24">
-        <f t="shared" si="7"/>
-        <v>30995437.100000001</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" si="8"/>
-        <v>30995437.100000001</v>
-      </c>
-      <c r="Z24">
-        <f t="shared" si="9"/>
-        <v>0.32355567265092705</v>
-      </c>
-      <c r="AA24">
-        <f t="shared" si="9"/>
-        <v>0.25758784992259393</v>
-      </c>
-      <c r="AB24">
-        <f>V24/SUM($T24:$W24)</f>
-        <v>0.16800703868763958</v>
-      </c>
-      <c r="AC24">
-        <f>W24/SUM($T24:$W24)</f>
-        <v>0.25084943873883941</v>
-      </c>
-      <c r="AE24">
-        <f>Z24*N24</f>
-        <v>4.2331392061575407E-4</v>
-      </c>
-      <c r="AF24">
-        <f>AA24*O24</f>
-        <v>1.5615524260504782E-3</v>
-      </c>
-      <c r="AG24">
-        <f>AB24*P24</f>
-        <v>7.5381740624009446E-4</v>
-      </c>
-      <c r="AH24">
-        <f>AC24*Q24</f>
-        <v>2.8218992272252873E-3</v>
-      </c>
-      <c r="AI24">
-        <f t="shared" si="10"/>
-        <v>5.5605829801316144E-3</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" si="11"/>
         <v>1.268963907023962E-2</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6560.4000000000005</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>24200.5</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>11682.449999999999</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>43733</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>172352.7</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>172352.7</v>
       </c>
     </row>
@@ -20955,47 +20955,47 @@
         <v>20369761</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3038654438144259E-3</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.8448860894668498E-3</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.9388768174824918E-3</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.8122429615153556E-3</v>
       </c>
       <c r="R25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>4.7041560115389045E-3</v>
       </c>
       <c r="S25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.8167943195686844</v>
       </c>
       <c r="T25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20320885.200000003</v>
       </c>
       <c r="U25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>22567118.5</v>
       </c>
       <c r="V25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15370412.85</v>
       </c>
       <c r="W25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>20369761</v>
       </c>
       <c r="X25">
-        <f t="shared" ref="X25:X26" si="19">SUM(T25:W25)</f>
+        <f t="shared" ref="X25:X26" si="27">SUM(T25:W25)</f>
         <v>78628177.550000012</v>
       </c>
       <c r="Y25">
@@ -21003,63 +21003,63 @@
         <v>78628177.550000012</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.25844278518445707</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.28701057563809701</v>
       </c>
       <c r="AB25">
-        <f>V25/SUM($T25:$W25)</f>
+        <f t="shared" si="26"/>
         <v>0.19548224731809261</v>
       </c>
       <c r="AC25">
-        <f>W25/SUM($T25:$W25)</f>
+        <f t="shared" si="26"/>
         <v>0.2590643918593532</v>
       </c>
       <c r="AE25">
-        <f>Z25*N25</f>
+        <f t="shared" si="1"/>
         <v>3.3697461680516844E-4</v>
       </c>
       <c r="AF25">
-        <f>AA25*O25</f>
+        <f t="shared" si="2"/>
         <v>1.1035229698007924E-3</v>
       </c>
       <c r="AG25">
-        <f>AB25*P25</f>
+        <f t="shared" si="3"/>
         <v>5.7449824487252135E-4</v>
       </c>
       <c r="AH25">
-        <f>AC25*Q25</f>
+        <f t="shared" si="4"/>
         <v>1.5057451881637816E-3</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>3.5207410196422639E-3</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>5.1425095177773474E-2</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>26495.7</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>86768</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>45171.75</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>118394</v>
       </c>
       <c r="AR25">
-        <f t="shared" ref="AR25:AR26" si="20">SUM(AN25:AQ25)</f>
+        <f t="shared" ref="AR25:AR26" si="28">SUM(AN25:AQ25)</f>
         <v>276829.45</v>
       </c>
       <c r="AS25">
@@ -21099,110 +21099,110 @@
         <v>3342684</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.4597775665335382E-4</v>
       </c>
       <c r="O26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.4551340239476861E-3</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0783258038636703E-3</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.258065674170816E-3</v>
       </c>
       <c r="R26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>1.7957556863765079E-3</v>
       </c>
       <c r="S26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.70194110876192628</v>
       </c>
       <c r="T26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3438515.85</v>
       </c>
       <c r="U26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3681963.25</v>
       </c>
       <c r="V26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2557019.4</v>
       </c>
       <c r="W26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3342684</v>
       </c>
       <c r="X26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>13020182.5</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.26409121761542131</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.28278891252100347</v>
       </c>
       <c r="AB26">
-        <f>V26/SUM($T26:$W26)</f>
+        <f t="shared" si="26"/>
         <v>0.19638890622308866</v>
       </c>
       <c r="AC26">
-        <f>W26/SUM($T26:$W26)</f>
+        <f t="shared" si="26"/>
         <v>0.25673096364048659</v>
       </c>
       <c r="AE26">
-        <f>Z26*N26</f>
+        <f t="shared" si="1"/>
         <v>9.1369687022436146E-5</v>
       </c>
       <c r="AF26">
-        <f>AA26*O26</f>
+        <f t="shared" si="2"/>
         <v>4.1149576820447795E-4</v>
       </c>
       <c r="AG26">
-        <f>AB26*P26</f>
+        <f t="shared" si="3"/>
         <v>2.1177122517291905E-4</v>
       </c>
       <c r="AH26">
-        <f>AC26*Q26</f>
+        <f t="shared" si="4"/>
         <v>5.7971537649337864E-4</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>1.2943520568932118E-3</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>8.7016880965664154E-3</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>1189.6500000000001</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>5357.75</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2757.2999999999997</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>7548</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>16852.699999999997</v>
       </c>
       <c r="AS26">
@@ -21323,15 +21323,15 @@
         <v>242193529</v>
       </c>
       <c r="W31">
-        <f t="shared" ref="W31:W53" si="21">V31*B4</f>
+        <f t="shared" ref="W31:W53" si="29">V31*B4</f>
         <v>2606833.9999999963</v>
       </c>
       <c r="Z31">
-        <f t="shared" ref="Z31:Z53" si="22">SUM(D4:G4)</f>
+        <f t="shared" ref="Z31:Z53" si="30">SUM(D4:G4)</f>
         <v>345892</v>
       </c>
       <c r="AA31">
-        <f t="shared" ref="AA31:AA53" si="23">SUM(I4:L4)</f>
+        <f t="shared" ref="AA31:AA53" si="31">SUM(I4:L4)</f>
         <v>50231254</v>
       </c>
       <c r="AO31" t="s">
@@ -21343,15 +21343,15 @@
         <v>198295559</v>
       </c>
       <c r="W32">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2023563.0000000028</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>248188</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>42193569</v>
       </c>
       <c r="AO32">
@@ -21368,15 +21368,15 @@
         <v>190214555</v>
       </c>
       <c r="W33">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1411048.9999999995</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>204917</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>42553618</v>
       </c>
       <c r="AC33" s="4"/>
@@ -21394,15 +21394,15 @@
         <v>181538259</v>
       </c>
       <c r="W34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1616303.0000000002</v>
       </c>
       <c r="Z34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>206857</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>38831767</v>
       </c>
       <c r="AC34" s="4"/>
@@ -21420,15 +21420,15 @@
         <v>170805979</v>
       </c>
       <c r="W35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1790796.9999999951</v>
       </c>
       <c r="Z35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>221673</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>36415836</v>
       </c>
       <c r="AC35" s="4"/>
@@ -21446,15 +21446,15 @@
         <v>159345973</v>
       </c>
       <c r="W36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1687198.9999999972</v>
       </c>
       <c r="Z36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>193404</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>32831476</v>
       </c>
       <c r="AC36" s="4"/>
@@ -21472,15 +21472,15 @@
         <v>145138636</v>
       </c>
       <c r="W37">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1188934.9999999995</v>
       </c>
       <c r="Z37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>143102</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>30241567</v>
       </c>
       <c r="AC37" s="4"/>
@@ -21498,15 +21498,15 @@
         <v>138394717</v>
       </c>
       <c r="W38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1431502.9999999972</v>
       </c>
       <c r="Z38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>153225</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>24530882</v>
       </c>
       <c r="AC38" s="4"/>
@@ -21524,15 +21524,15 @@
         <v>133797422</v>
       </c>
       <c r="W39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1368062.9999999946</v>
       </c>
       <c r="Z39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>167775</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>26475944</v>
       </c>
       <c r="AC39" s="4"/>
@@ -21550,15 +21550,15 @@
         <v>135086622</v>
       </c>
       <c r="W40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2084575.9999999984</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>209099</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>26578384</v>
       </c>
       <c r="AC40" s="4"/>
@@ -21576,15 +21576,15 @@
         <v>133275309</v>
       </c>
       <c r="W41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1846623.0000000012</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>220866</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>27307390</v>
       </c>
       <c r="AC41" s="4"/>
@@ -21602,15 +21602,15 @@
         <v>114364328</v>
       </c>
       <c r="W42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>644365.99999999953</v>
       </c>
       <c r="Z42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>95261</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>21778003</v>
       </c>
       <c r="AC42" s="4"/>
@@ -21632,11 +21632,11 @@
         <v>1166991.0000000026</v>
       </c>
       <c r="Z43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>136138</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>18533582</v>
       </c>
       <c r="AC43" s="4"/>
@@ -21654,15 +21654,15 @@
         <v>101991189</v>
       </c>
       <c r="W44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1230717.000000003</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>140817</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>16561283</v>
       </c>
       <c r="AC44" s="4"/>
@@ -21680,15 +21680,15 @@
         <v>90338345</v>
       </c>
       <c r="W45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1516482.0000000009</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>123084</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>14354956</v>
       </c>
       <c r="AC45" s="4"/>
@@ -21706,15 +21706,15 @@
         <v>83257441</v>
       </c>
       <c r="W46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2050524.0000000042</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>177935</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>14272145</v>
       </c>
       <c r="AC46" s="4"/>
@@ -21732,15 +21732,15 @@
         <v>80373285</v>
       </c>
       <c r="W47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>560085.99999999988</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>75705</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>17086382</v>
       </c>
       <c r="AC47" s="4"/>
@@ -21758,15 +21758,15 @@
         <v>58617616</v>
       </c>
       <c r="W48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2352668.0000000028</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>179929</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>9039919</v>
       </c>
       <c r="AC48" s="4"/>
@@ -21784,15 +21784,15 @@
         <v>64444167</v>
       </c>
       <c r="W49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>840538.00000000198</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>75349</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>11622626</v>
       </c>
       <c r="AC49" s="4"/>
@@ -21810,15 +21810,15 @@
         <v>46709983</v>
       </c>
       <c r="W50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>354491.00000000023</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>38712</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8245041</v>
       </c>
       <c r="AC50" s="4"/>
@@ -21836,15 +21836,15 @@
         <v>50818468</v>
       </c>
       <c r="W51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>749425.00000000256</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>53630</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>6207607</v>
       </c>
       <c r="AC51" s="4"/>
@@ -21862,15 +21862,15 @@
         <v>156040895</v>
       </c>
       <c r="W52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1333601.0000000002</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>155821</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>33124114</v>
       </c>
       <c r="AC52" s="4"/>
@@ -21888,15 +21888,15 @@
         <v>57227415</v>
       </c>
       <c r="W53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>72135.999999999985</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>9804</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>5459540</v>
       </c>
       <c r="AC53" s="4"/>
